--- a/input/emissions-inventories/EIA-data/Table_10.1_Renewable_Energy_Production_and_Consumption_by_Source.xlsx
+++ b/input/emissions-inventories/EIA-data/Table_10.1_Renewable_Energy_Production_and_Consumption_by_Source.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>June 2017 Monthly Energy Review</t>
+    <t>June 2018 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: June 28, 2017</t>
+    <t>Release Date: June 26, 2018</t>
   </si>
   <si>
-    <t>Next Update: July 26, 2017</t>
+    <t>Next Update: July 26, 2018</t>
   </si>
   <si>
     <t>Table 10.1 Renewable Energy Production and Consumption by Source</t>
@@ -485,7 +485,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M543"/>
+  <dimension ref="A1:M555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -8675,7 +8675,7 @@
         <v>13.857</v>
       </c>
       <c r="G209">
-        <v>5.238</v>
+        <v>5.237</v>
       </c>
       <c r="H209">
         <v>2.131</v>
@@ -8716,7 +8716,7 @@
         <v>13.664</v>
       </c>
       <c r="G210">
-        <v>5.347</v>
+        <v>5.346</v>
       </c>
       <c r="H210">
         <v>1.631</v>
@@ -9085,7 +9085,7 @@
         <v>15.116</v>
       </c>
       <c r="G219">
-        <v>4.686</v>
+        <v>4.685</v>
       </c>
       <c r="H219">
         <v>2.551</v>
@@ -9536,7 +9536,7 @@
         <v>13.497</v>
       </c>
       <c r="G230">
-        <v>3.535</v>
+        <v>3.534</v>
       </c>
       <c r="H230">
         <v>3.026</v>
@@ -9577,7 +9577,7 @@
         <v>15.382</v>
       </c>
       <c r="G231">
-        <v>4.625</v>
+        <v>4.624</v>
       </c>
       <c r="H231">
         <v>2.161</v>
@@ -9782,7 +9782,7 @@
         <v>14.928</v>
       </c>
       <c r="G236">
-        <v>6.564</v>
+        <v>6.563</v>
       </c>
       <c r="H236">
         <v>2.377</v>
@@ -10060,7 +10060,7 @@
         <v>221.177</v>
       </c>
       <c r="D243">
-        <v>482.782</v>
+        <v>482.781</v>
       </c>
       <c r="E243">
         <v>237.66</v>
@@ -10087,7 +10087,7 @@
         <v>221.177</v>
       </c>
       <c r="M243">
-        <v>482.782</v>
+        <v>482.781</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10101,7 +10101,7 @@
         <v>210.172</v>
       </c>
       <c r="D244">
-        <v>445.953</v>
+        <v>445.952</v>
       </c>
       <c r="E244">
         <v>212.719</v>
@@ -10128,7 +10128,7 @@
         <v>210.172</v>
       </c>
       <c r="M244">
-        <v>445.953</v>
+        <v>445.952</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10497,7 +10497,7 @@
         <v>273.487</v>
       </c>
       <c r="M253">
-        <v>563.873</v>
+        <v>563.872</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10561,7 +10561,7 @@
         <v>16.137</v>
       </c>
       <c r="G255">
-        <v>5.217</v>
+        <v>5.216</v>
       </c>
       <c r="H255">
         <v>5.356</v>
@@ -10634,7 +10634,7 @@
         <v>196.012</v>
       </c>
       <c r="D257">
-        <v>537.101</v>
+        <v>537.1</v>
       </c>
       <c r="E257">
         <v>316.469</v>
@@ -10757,7 +10757,7 @@
         <v>262.322</v>
       </c>
       <c r="D260">
-        <v>502.289</v>
+        <v>502.288</v>
       </c>
       <c r="E260">
         <v>216.292</v>
@@ -10784,7 +10784,7 @@
         <v>261.507</v>
       </c>
       <c r="M260">
-        <v>501.474</v>
+        <v>501.473</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11085,7 +11085,7 @@
         <v>236.035</v>
       </c>
       <c r="D268">
-        <v>515.823</v>
+        <v>515.822</v>
       </c>
       <c r="E268">
         <v>254.767</v>
@@ -11135,7 +11135,7 @@
         <v>14.543</v>
       </c>
       <c r="G269">
-        <v>6.595</v>
+        <v>6.594</v>
       </c>
       <c r="H269">
         <v>3.798</v>
@@ -11167,7 +11167,7 @@
         <v>215.744</v>
       </c>
       <c r="D270">
-        <v>497.43</v>
+        <v>497.429</v>
       </c>
       <c r="E270">
         <v>258.029</v>
@@ -11217,7 +11217,7 @@
         <v>13.897</v>
       </c>
       <c r="G271">
-        <v>6.987</v>
+        <v>6.986</v>
       </c>
       <c r="H271">
         <v>1.956</v>
@@ -11399,7 +11399,7 @@
         <v>261.089</v>
       </c>
       <c r="M275">
-        <v>482.583</v>
+        <v>482.582</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11463,7 +11463,7 @@
         <v>13.067</v>
       </c>
       <c r="G277">
-        <v>3.472</v>
+        <v>3.471</v>
       </c>
       <c r="H277">
         <v>0.059</v>
@@ -11563,7 +11563,7 @@
         <v>240.022</v>
       </c>
       <c r="M279">
-        <v>550.607</v>
+        <v>550.606</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11577,7 +11577,7 @@
         <v>267.571</v>
       </c>
       <c r="D280">
-        <v>536.525</v>
+        <v>536.524</v>
       </c>
       <c r="E280">
         <v>253.408</v>
@@ -11604,7 +11604,7 @@
         <v>267.29</v>
       </c>
       <c r="M280">
-        <v>536.244</v>
+        <v>536.243</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -11627,7 +11627,7 @@
         <v>8.606</v>
       </c>
       <c r="G281">
-        <v>6.878</v>
+        <v>6.877</v>
       </c>
       <c r="H281">
         <v>4.214</v>
@@ -11645,7 +11645,7 @@
         <v>225.827</v>
       </c>
       <c r="M281">
-        <v>532.007</v>
+        <v>532.006</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -11709,7 +11709,7 @@
         <v>10.066</v>
       </c>
       <c r="G283">
-        <v>7.291</v>
+        <v>7.29</v>
       </c>
       <c r="H283">
         <v>6.392</v>
@@ -11741,7 +11741,7 @@
         <v>301.628</v>
       </c>
       <c r="D284">
-        <v>582.281</v>
+        <v>582.28</v>
       </c>
       <c r="E284">
         <v>251.378</v>
@@ -12069,7 +12069,7 @@
         <v>205.729</v>
       </c>
       <c r="D292">
-        <v>556.067</v>
+        <v>556.066</v>
       </c>
       <c r="E292">
         <v>329.254</v>
@@ -12078,7 +12078,7 @@
         <v>12.137</v>
       </c>
       <c r="G292">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="H292">
         <v>2.527</v>
@@ -12096,7 +12096,7 @@
         <v>205.781</v>
       </c>
       <c r="M292">
-        <v>556.119</v>
+        <v>556.118</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12110,7 +12110,7 @@
         <v>231.211</v>
       </c>
       <c r="D293">
-        <v>594.904</v>
+        <v>594.903</v>
       </c>
       <c r="E293">
         <v>343.915</v>
@@ -12192,7 +12192,7 @@
         <v>281.656</v>
       </c>
       <c r="D295">
-        <v>610.094</v>
+        <v>610.093</v>
       </c>
       <c r="E295">
         <v>298.56</v>
@@ -12365,7 +12365,7 @@
         <v>16.486</v>
       </c>
       <c r="G299">
-        <v>4.665</v>
+        <v>4.664</v>
       </c>
       <c r="H299">
         <v>1.021</v>
@@ -12424,7 +12424,7 @@
         <v>263.996</v>
       </c>
       <c r="M300">
-        <v>597.217</v>
+        <v>597.216</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12529,7 +12529,7 @@
         <v>13.424</v>
       </c>
       <c r="G303">
-        <v>5.522</v>
+        <v>5.521</v>
       </c>
       <c r="H303">
         <v>1.517</v>
@@ -12643,7 +12643,7 @@
         <v>231.69</v>
       </c>
       <c r="D306">
-        <v>607.801</v>
+        <v>607.8</v>
       </c>
       <c r="E306">
         <v>351.899</v>
@@ -12971,7 +12971,7 @@
         <v>212.209</v>
       </c>
       <c r="D314">
-        <v>534.592</v>
+        <v>534.591</v>
       </c>
       <c r="E314">
         <v>305.87</v>
@@ -13135,7 +13135,7 @@
         <v>186.089</v>
       </c>
       <c r="D318">
-        <v>538.49</v>
+        <v>538.489</v>
       </c>
       <c r="E318">
         <v>329.782</v>
@@ -13217,7 +13217,7 @@
         <v>254.237</v>
       </c>
       <c r="D320">
-        <v>537.286</v>
+        <v>537.285</v>
       </c>
       <c r="E320">
         <v>256.055</v>
@@ -13226,7 +13226,7 @@
         <v>15.558</v>
       </c>
       <c r="G320">
-        <v>7.136</v>
+        <v>7.135</v>
       </c>
       <c r="H320">
         <v>4.299</v>
@@ -13285,7 +13285,7 @@
         <v>247.917</v>
       </c>
       <c r="M321">
-        <v>486.755</v>
+        <v>486.754</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13367,7 +13367,7 @@
         <v>230.044</v>
       </c>
       <c r="M323">
-        <v>455.641</v>
+        <v>455.64</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13490,7 +13490,7 @@
         <v>220.435</v>
       </c>
       <c r="M326">
-        <v>533.1</v>
+        <v>533.099</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -13654,7 +13654,7 @@
         <v>237.39</v>
       </c>
       <c r="M330">
-        <v>573.249</v>
+        <v>573.248</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -13668,7 +13668,7 @@
         <v>264.292</v>
       </c>
       <c r="D331">
-        <v>593.679</v>
+        <v>593.678</v>
       </c>
       <c r="E331">
         <v>303.567</v>
@@ -13695,7 +13695,7 @@
         <v>264.247</v>
       </c>
       <c r="M331">
-        <v>593.634</v>
+        <v>593.633</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -13709,7 +13709,7 @@
         <v>258.854</v>
       </c>
       <c r="D332">
-        <v>547.073</v>
+        <v>547.072</v>
       </c>
       <c r="E332">
         <v>263.077</v>
@@ -13718,7 +13718,7 @@
         <v>14.417</v>
       </c>
       <c r="G332">
-        <v>6.816</v>
+        <v>6.815</v>
       </c>
       <c r="H332">
         <v>3.909</v>
@@ -13750,7 +13750,7 @@
         <v>244.14</v>
       </c>
       <c r="D333">
-        <v>482.161</v>
+        <v>482.16</v>
       </c>
       <c r="E333">
         <v>213.64</v>
@@ -13914,7 +13914,7 @@
         <v>222.067</v>
       </c>
       <c r="D337">
-        <v>505.149</v>
+        <v>505.148</v>
       </c>
       <c r="E337">
         <v>258.518</v>
@@ -13996,7 +13996,7 @@
         <v>263.209</v>
       </c>
       <c r="D339">
-        <v>558.003</v>
+        <v>558.002</v>
       </c>
       <c r="E339">
         <v>272.397</v>
@@ -14128,7 +14128,7 @@
         <v>13.563</v>
       </c>
       <c r="G342">
-        <v>6.363</v>
+        <v>6.362</v>
       </c>
       <c r="H342">
         <v>4.56</v>
@@ -14146,7 +14146,7 @@
         <v>226.346</v>
       </c>
       <c r="M342">
-        <v>507.744</v>
+        <v>507.743</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -14310,7 +14310,7 @@
         <v>271.693</v>
       </c>
       <c r="M346">
-        <v>469.433</v>
+        <v>469.432</v>
       </c>
     </row>
     <row r="347" spans="1:13">
@@ -14488,7 +14488,7 @@
         <v>219.649</v>
       </c>
       <c r="D351">
-        <v>455.777</v>
+        <v>455.776</v>
       </c>
       <c r="E351">
         <v>211.591</v>
@@ -14529,7 +14529,7 @@
         <v>213.628</v>
       </c>
       <c r="D352">
-        <v>425.362</v>
+        <v>425.361</v>
       </c>
       <c r="E352">
         <v>186.128</v>
@@ -14570,7 +14570,7 @@
         <v>211.506</v>
       </c>
       <c r="D353">
-        <v>435.512</v>
+        <v>435.511</v>
       </c>
       <c r="E353">
         <v>198.142</v>
@@ -14611,7 +14611,7 @@
         <v>213.95</v>
       </c>
       <c r="D354">
-        <v>454.612</v>
+        <v>454.611</v>
       </c>
       <c r="E354">
         <v>214.179</v>
@@ -14620,7 +14620,7 @@
         <v>13.088</v>
       </c>
       <c r="G354">
-        <v>6.476</v>
+        <v>6.475</v>
       </c>
       <c r="H354">
         <v>6.919</v>
@@ -14652,7 +14652,7 @@
         <v>221.842</v>
       </c>
       <c r="D355">
-        <v>436.062</v>
+        <v>436.061</v>
       </c>
       <c r="E355">
         <v>186.812</v>
@@ -14661,7 +14661,7 @@
         <v>14.087</v>
       </c>
       <c r="G355">
-        <v>6.76</v>
+        <v>6.759</v>
       </c>
       <c r="H355">
         <v>6.561</v>
@@ -14679,7 +14679,7 @@
         <v>224.217</v>
       </c>
       <c r="M355">
-        <v>438.437</v>
+        <v>438.436</v>
       </c>
     </row>
     <row r="356" spans="1:13">
@@ -14693,7 +14693,7 @@
         <v>225.897</v>
       </c>
       <c r="D356">
-        <v>447.898</v>
+        <v>447.897</v>
       </c>
       <c r="E356">
         <v>195.436</v>
@@ -14761,7 +14761,7 @@
         <v>213.593</v>
       </c>
       <c r="M357">
-        <v>395.829</v>
+        <v>395.828</v>
       </c>
     </row>
     <row r="358" spans="1:13">
@@ -14775,7 +14775,7 @@
         <v>227.319</v>
       </c>
       <c r="D358">
-        <v>409.915</v>
+        <v>409.914</v>
       </c>
       <c r="E358">
         <v>157.418</v>
@@ -14825,7 +14825,7 @@
         <v>13.805</v>
       </c>
       <c r="G359">
-        <v>4.068</v>
+        <v>4.067</v>
       </c>
       <c r="H359">
         <v>4.861</v>
@@ -14843,7 +14843,7 @@
         <v>219.018</v>
       </c>
       <c r="M359">
-        <v>401.014</v>
+        <v>401.013</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -14866,7 +14866,7 @@
         <v>14.208</v>
       </c>
       <c r="G360">
-        <v>3.763</v>
+        <v>3.762</v>
       </c>
       <c r="H360">
         <v>6.362</v>
@@ -14925,7 +14925,7 @@
         <v>226.851</v>
       </c>
       <c r="M361">
-        <v>474.996</v>
+        <v>474.995</v>
       </c>
     </row>
     <row r="362" spans="1:13">
@@ -14948,7 +14948,7 @@
         <v>13.339</v>
       </c>
       <c r="G362">
-        <v>3.41</v>
+        <v>3.409</v>
       </c>
       <c r="H362">
         <v>7.263</v>
@@ -14966,7 +14966,7 @@
         <v>199.37</v>
       </c>
       <c r="M362">
-        <v>428.792</v>
+        <v>428.791</v>
       </c>
     </row>
     <row r="363" spans="1:13">
@@ -14980,7 +14980,7 @@
         <v>217.568</v>
       </c>
       <c r="D363">
-        <v>459.46</v>
+        <v>459.459</v>
       </c>
       <c r="E363">
         <v>213.723</v>
@@ -15062,7 +15062,7 @@
         <v>225.155</v>
       </c>
       <c r="D365">
-        <v>527.644</v>
+        <v>527.643</v>
       </c>
       <c r="E365">
         <v>271.24</v>
@@ -15071,7 +15071,7 @@
         <v>14.386</v>
       </c>
       <c r="G365">
-        <v>5.901</v>
+        <v>5.9</v>
       </c>
       <c r="H365">
         <v>10.963</v>
@@ -15103,7 +15103,7 @@
         <v>215.107</v>
       </c>
       <c r="D366">
-        <v>533.567</v>
+        <v>533.566</v>
       </c>
       <c r="E366">
         <v>287.009</v>
@@ -15130,7 +15130,7 @@
         <v>214.539</v>
       </c>
       <c r="M366">
-        <v>532.999</v>
+        <v>532.998</v>
       </c>
     </row>
     <row r="367" spans="1:13">
@@ -15144,7 +15144,7 @@
         <v>235.713</v>
       </c>
       <c r="D367">
-        <v>525.241</v>
+        <v>525.24</v>
       </c>
       <c r="E367">
         <v>259.113</v>
@@ -15171,7 +15171,7 @@
         <v>236.261</v>
       </c>
       <c r="M367">
-        <v>525.789</v>
+        <v>525.788</v>
       </c>
     </row>
     <row r="368" spans="1:13">
@@ -15194,7 +15194,7 @@
         <v>14.5</v>
       </c>
       <c r="G368">
-        <v>6.333</v>
+        <v>6.332</v>
       </c>
       <c r="H368">
         <v>9.936</v>
@@ -15212,7 +15212,7 @@
         <v>223.963</v>
       </c>
       <c r="M368">
-        <v>469.218</v>
+        <v>469.217</v>
       </c>
     </row>
     <row r="369" spans="1:13">
@@ -15253,7 +15253,7 @@
         <v>229.971</v>
       </c>
       <c r="M369">
-        <v>431.006</v>
+        <v>431.005</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -15267,7 +15267,7 @@
         <v>243.767</v>
       </c>
       <c r="D370">
-        <v>445.449</v>
+        <v>445.448</v>
       </c>
       <c r="E370">
         <v>174.684</v>
@@ -15276,7 +15276,7 @@
         <v>14.581</v>
       </c>
       <c r="G370">
-        <v>4.946</v>
+        <v>4.945</v>
       </c>
       <c r="H370">
         <v>7.471</v>
@@ -15294,7 +15294,7 @@
         <v>243.674</v>
       </c>
       <c r="M370">
-        <v>445.356</v>
+        <v>445.355</v>
       </c>
     </row>
     <row r="371" spans="1:13">
@@ -15376,7 +15376,7 @@
         <v>241.737</v>
       </c>
       <c r="M372">
-        <v>488.098</v>
+        <v>488.097</v>
       </c>
     </row>
     <row r="373" spans="1:13">
@@ -15417,7 +15417,7 @@
         <v>234.717</v>
       </c>
       <c r="M373">
-        <v>467.76</v>
+        <v>467.759</v>
       </c>
     </row>
     <row r="374" spans="1:13">
@@ -15513,7 +15513,7 @@
         <v>228.516</v>
       </c>
       <c r="D376">
-        <v>509.635</v>
+        <v>509.634</v>
       </c>
       <c r="E376">
         <v>250.685</v>
@@ -15522,7 +15522,7 @@
         <v>14.062</v>
       </c>
       <c r="G376">
-        <v>5.308</v>
+        <v>5.307</v>
       </c>
       <c r="H376">
         <v>11.064</v>
@@ -15554,7 +15554,7 @@
         <v>229.756</v>
       </c>
       <c r="D377">
-        <v>557.606</v>
+        <v>557.605</v>
       </c>
       <c r="E377">
         <v>297.627</v>
@@ -15595,7 +15595,7 @@
         <v>228.254</v>
       </c>
       <c r="D378">
-        <v>549.076</v>
+        <v>549.075</v>
       </c>
       <c r="E378">
         <v>289.436</v>
@@ -15604,7 +15604,7 @@
         <v>14.633</v>
       </c>
       <c r="G378">
-        <v>6.15</v>
+        <v>6.149</v>
       </c>
       <c r="H378">
         <v>10.602</v>
@@ -15663,7 +15663,7 @@
         <v>241.766</v>
       </c>
       <c r="M379">
-        <v>523.84</v>
+        <v>523.839</v>
       </c>
     </row>
     <row r="380" spans="1:13">
@@ -15686,7 +15686,7 @@
         <v>14.674</v>
       </c>
       <c r="G380">
-        <v>6.063</v>
+        <v>6.062</v>
       </c>
       <c r="H380">
         <v>8.256</v>
@@ -15718,7 +15718,7 @@
         <v>230.968</v>
       </c>
       <c r="D381">
-        <v>447.106</v>
+        <v>447.105</v>
       </c>
       <c r="E381">
         <v>187.115</v>
@@ -15727,7 +15727,7 @@
         <v>14.437</v>
       </c>
       <c r="G381">
-        <v>5.523</v>
+        <v>5.522</v>
       </c>
       <c r="H381">
         <v>9.062</v>
@@ -15768,7 +15768,7 @@
         <v>14.431</v>
       </c>
       <c r="G382">
-        <v>4.877</v>
+        <v>4.876</v>
       </c>
       <c r="H382">
         <v>9.084</v>
@@ -15786,7 +15786,7 @@
         <v>237.129</v>
       </c>
       <c r="M382">
-        <v>452.109</v>
+        <v>452.108</v>
       </c>
     </row>
     <row r="383" spans="1:13">
@@ -15841,7 +15841,7 @@
         <v>251.16</v>
       </c>
       <c r="D384">
-        <v>524.521</v>
+        <v>524.52</v>
       </c>
       <c r="E384">
         <v>243.449</v>
@@ -15882,7 +15882,7 @@
         <v>255.574</v>
       </c>
       <c r="D385">
-        <v>514.251</v>
+        <v>514.25</v>
       </c>
       <c r="E385">
         <v>230.201</v>
@@ -15891,7 +15891,7 @@
         <v>15.493</v>
       </c>
       <c r="G385">
-        <v>2.973</v>
+        <v>2.972</v>
       </c>
       <c r="H385">
         <v>10.01</v>
@@ -15950,7 +15950,7 @@
         <v>238.543</v>
       </c>
       <c r="M386">
-        <v>475.945</v>
+        <v>475.944</v>
       </c>
     </row>
     <row r="387" spans="1:13">
@@ -15964,7 +15964,7 @@
         <v>248.532</v>
       </c>
       <c r="D387">
-        <v>510.686</v>
+        <v>510.685</v>
       </c>
       <c r="E387">
         <v>229.509</v>
@@ -15973,7 +15973,7 @@
         <v>14.954</v>
       </c>
       <c r="G387">
-        <v>4.758</v>
+        <v>4.757</v>
       </c>
       <c r="H387">
         <v>12.933</v>
@@ -16005,7 +16005,7 @@
         <v>247.253</v>
       </c>
       <c r="D388">
-        <v>488.741</v>
+        <v>488.74</v>
       </c>
       <c r="E388">
         <v>209.214</v>
@@ -16032,7 +16032,7 @@
         <v>248.412</v>
       </c>
       <c r="M388">
-        <v>489.9</v>
+        <v>489.899</v>
       </c>
     </row>
     <row r="389" spans="1:13">
@@ -16046,7 +16046,7 @@
         <v>244.383</v>
       </c>
       <c r="D389">
-        <v>522.59</v>
+        <v>522.589</v>
       </c>
       <c r="E389">
         <v>240.581</v>
@@ -16055,7 +16055,7 @@
         <v>14.619</v>
       </c>
       <c r="G389">
-        <v>5.963</v>
+        <v>5.962</v>
       </c>
       <c r="H389">
         <v>17.044</v>
@@ -16073,7 +16073,7 @@
         <v>244.964</v>
       </c>
       <c r="M389">
-        <v>523.171</v>
+        <v>523.17</v>
       </c>
     </row>
     <row r="390" spans="1:13">
@@ -16137,7 +16137,7 @@
         <v>15.32</v>
       </c>
       <c r="G391">
-        <v>6.271</v>
+        <v>6.27</v>
       </c>
       <c r="H391">
         <v>11.662</v>
@@ -16155,7 +16155,7 @@
         <v>257.191</v>
       </c>
       <c r="M391">
-        <v>524</v>
+        <v>523.999</v>
       </c>
     </row>
     <row r="392" spans="1:13">
@@ -16196,7 +16196,7 @@
         <v>254.388</v>
       </c>
       <c r="M392">
-        <v>502.415</v>
+        <v>502.414</v>
       </c>
     </row>
     <row r="393" spans="1:13">
@@ -16210,7 +16210,7 @@
         <v>243.019</v>
       </c>
       <c r="D393">
-        <v>479.384</v>
+        <v>479.383</v>
       </c>
       <c r="E393">
         <v>205.581</v>
@@ -16219,7 +16219,7 @@
         <v>14.345</v>
       </c>
       <c r="G393">
-        <v>5.525</v>
+        <v>5.524</v>
       </c>
       <c r="H393">
         <v>10.914</v>
@@ -16260,7 +16260,7 @@
         <v>15.308</v>
       </c>
       <c r="G394">
-        <v>4.818</v>
+        <v>4.817</v>
       </c>
       <c r="H394">
         <v>10.305</v>
@@ -16278,7 +16278,7 @@
         <v>254.761</v>
       </c>
       <c r="M394">
-        <v>474.122</v>
+        <v>474.121</v>
       </c>
     </row>
     <row r="395" spans="1:13">
@@ -16333,7 +16333,7 @@
         <v>264.199</v>
       </c>
       <c r="D396">
-        <v>557.136</v>
+        <v>557.135</v>
       </c>
       <c r="E396">
         <v>262.527</v>
@@ -16342,7 +16342,7 @@
         <v>15.104</v>
       </c>
       <c r="G396">
-        <v>3.568</v>
+        <v>3.567</v>
       </c>
       <c r="H396">
         <v>11.739</v>
@@ -16374,7 +16374,7 @@
         <v>264.707</v>
       </c>
       <c r="D397">
-        <v>537.029</v>
+        <v>537.028</v>
       </c>
       <c r="E397">
         <v>242.697</v>
@@ -16383,7 +16383,7 @@
         <v>15.391</v>
       </c>
       <c r="G397">
-        <v>2.919</v>
+        <v>2.918</v>
       </c>
       <c r="H397">
         <v>11.315</v>
@@ -16401,7 +16401,7 @@
         <v>265.619</v>
       </c>
       <c r="M397">
-        <v>537.941</v>
+        <v>537.94</v>
       </c>
     </row>
     <row r="398" spans="1:13">
@@ -16415,7 +16415,7 @@
         <v>247.271</v>
       </c>
       <c r="D398">
-        <v>489.387</v>
+        <v>489.386</v>
       </c>
       <c r="E398">
         <v>216.046</v>
@@ -16424,7 +16424,7 @@
         <v>13.222</v>
       </c>
       <c r="G398">
-        <v>3.184</v>
+        <v>3.183</v>
       </c>
       <c r="H398">
         <v>9.664</v>
@@ -16442,7 +16442,7 @@
         <v>247.041</v>
       </c>
       <c r="M398">
-        <v>489.157</v>
+        <v>489.156</v>
       </c>
     </row>
     <row r="399" spans="1:13">
@@ -16456,7 +16456,7 @@
         <v>260.043</v>
       </c>
       <c r="D399">
-        <v>524.485</v>
+        <v>524.484</v>
       </c>
       <c r="E399">
         <v>229.338</v>
@@ -16465,7 +16465,7 @@
         <v>14.912</v>
       </c>
       <c r="G399">
-        <v>4.588</v>
+        <v>4.587</v>
       </c>
       <c r="H399">
         <v>15.605</v>
@@ -16483,7 +16483,7 @@
         <v>259.499</v>
       </c>
       <c r="M399">
-        <v>523.941</v>
+        <v>523.94</v>
       </c>
     </row>
     <row r="400" spans="1:13">
@@ -16497,7 +16497,7 @@
         <v>246.929</v>
       </c>
       <c r="D400">
-        <v>514.33</v>
+        <v>514.329</v>
       </c>
       <c r="E400">
         <v>230.561</v>
@@ -16506,7 +16506,7 @@
         <v>14.648</v>
       </c>
       <c r="G400">
-        <v>5.219</v>
+        <v>5.218</v>
       </c>
       <c r="H400">
         <v>16.973</v>
@@ -16524,7 +16524,7 @@
         <v>246.323</v>
       </c>
       <c r="M400">
-        <v>513.724</v>
+        <v>513.723</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -16538,7 +16538,7 @@
         <v>255.79</v>
       </c>
       <c r="D401">
-        <v>567.453</v>
+        <v>567.452</v>
       </c>
       <c r="E401">
         <v>272.758</v>
@@ -16547,7 +16547,7 @@
         <v>15.513</v>
       </c>
       <c r="G401">
-        <v>5.93</v>
+        <v>5.929</v>
       </c>
       <c r="H401">
         <v>17.463</v>
@@ -16565,7 +16565,7 @@
         <v>256.686</v>
       </c>
       <c r="M401">
-        <v>568.349</v>
+        <v>568.348</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -16579,7 +16579,7 @@
         <v>252.466</v>
       </c>
       <c r="D402">
-        <v>559.543</v>
+        <v>559.542</v>
       </c>
       <c r="E402">
         <v>267.803</v>
@@ -16588,7 +16588,7 @@
         <v>15.257</v>
       </c>
       <c r="G402">
-        <v>6.049</v>
+        <v>6.048</v>
       </c>
       <c r="H402">
         <v>17.967</v>
@@ -16606,7 +16606,7 @@
         <v>255.114</v>
       </c>
       <c r="M402">
-        <v>562.191</v>
+        <v>562.19</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -16620,7 +16620,7 @@
         <v>266.332</v>
       </c>
       <c r="D403">
-        <v>561.824</v>
+        <v>561.823</v>
       </c>
       <c r="E403">
         <v>259.542</v>
@@ -16629,7 +16629,7 @@
         <v>15.596</v>
       </c>
       <c r="G403">
-        <v>6.145</v>
+        <v>6.144</v>
       </c>
       <c r="H403">
         <v>14.208</v>
@@ -16647,7 +16647,7 @@
         <v>267.028</v>
       </c>
       <c r="M403">
-        <v>562.519</v>
+        <v>562.518</v>
       </c>
     </row>
     <row r="404" spans="1:13">
@@ -16661,7 +16661,7 @@
         <v>266.097</v>
       </c>
       <c r="D404">
-        <v>514.643</v>
+        <v>514.641</v>
       </c>
       <c r="E404">
         <v>215.635</v>
@@ -16670,7 +16670,7 @@
         <v>15.407</v>
       </c>
       <c r="G404">
-        <v>6.123</v>
+        <v>6.122</v>
       </c>
       <c r="H404">
         <v>11.379</v>
@@ -16688,7 +16688,7 @@
         <v>268.73</v>
       </c>
       <c r="M404">
-        <v>517.276</v>
+        <v>517.274</v>
       </c>
     </row>
     <row r="405" spans="1:13">
@@ -16702,7 +16702,7 @@
         <v>255.348</v>
       </c>
       <c r="D405">
-        <v>464.157</v>
+        <v>464.156</v>
       </c>
       <c r="E405">
         <v>173.619</v>
@@ -16711,7 +16711,7 @@
         <v>15.003</v>
       </c>
       <c r="G405">
-        <v>5.504</v>
+        <v>5.503</v>
       </c>
       <c r="H405">
         <v>14.682</v>
@@ -16729,7 +16729,7 @@
         <v>255.836</v>
       </c>
       <c r="M405">
-        <v>464.645</v>
+        <v>464.644</v>
       </c>
     </row>
     <row r="406" spans="1:13">
@@ -16743,7 +16743,7 @@
         <v>261.121</v>
       </c>
       <c r="D406">
-        <v>475.805</v>
+        <v>475.804</v>
       </c>
       <c r="E406">
         <v>180.046</v>
@@ -16752,7 +16752,7 @@
         <v>15.341</v>
       </c>
       <c r="G406">
-        <v>4.836</v>
+        <v>4.835</v>
       </c>
       <c r="H406">
         <v>14.46</v>
@@ -16770,7 +16770,7 @@
         <v>262.388</v>
       </c>
       <c r="M406">
-        <v>477.072</v>
+        <v>477.071</v>
       </c>
     </row>
     <row r="407" spans="1:13">
@@ -16784,7 +16784,7 @@
         <v>256.532</v>
       </c>
       <c r="D407">
-        <v>484.893</v>
+        <v>484.892</v>
       </c>
       <c r="E407">
         <v>193.507</v>
@@ -16793,7 +16793,7 @@
         <v>14.973</v>
       </c>
       <c r="G407">
-        <v>3.786</v>
+        <v>3.785</v>
       </c>
       <c r="H407">
         <v>16.095</v>
@@ -16811,7 +16811,7 @@
         <v>258.577</v>
       </c>
       <c r="M407">
-        <v>486.938</v>
+        <v>486.937</v>
       </c>
     </row>
     <row r="408" spans="1:13">
@@ -16825,7 +16825,7 @@
         <v>268.55</v>
       </c>
       <c r="D408">
-        <v>527.154</v>
+        <v>527.153</v>
       </c>
       <c r="E408">
         <v>221.389</v>
@@ -16852,7 +16852,7 @@
         <v>271.089</v>
       </c>
       <c r="M408">
-        <v>529.693</v>
+        <v>529.692</v>
       </c>
     </row>
     <row r="409" spans="1:13">
@@ -16875,7 +16875,7 @@
         <v>15.313</v>
       </c>
       <c r="G409">
-        <v>3.138</v>
+        <v>3.137</v>
       </c>
       <c r="H409">
         <v>23.633</v>
@@ -16893,7 +16893,7 @@
         <v>275.22</v>
       </c>
       <c r="M409">
-        <v>589.449</v>
+        <v>589.448</v>
       </c>
     </row>
     <row r="410" spans="1:13">
@@ -16907,7 +16907,7 @@
         <v>247.274</v>
       </c>
       <c r="D410">
-        <v>529.221</v>
+        <v>529.22</v>
       </c>
       <c r="E410">
         <v>245.611</v>
@@ -16916,7 +16916,7 @@
         <v>13.834</v>
       </c>
       <c r="G410">
-        <v>3.438</v>
+        <v>3.437</v>
       </c>
       <c r="H410">
         <v>19.064</v>
@@ -16934,7 +16934,7 @@
         <v>245.044</v>
       </c>
       <c r="M410">
-        <v>526.991</v>
+        <v>526.99</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -16948,7 +16948,7 @@
         <v>265.069</v>
       </c>
       <c r="D411">
-        <v>553.145</v>
+        <v>553.144</v>
       </c>
       <c r="E411">
         <v>244.251</v>
@@ -16957,7 +16957,7 @@
         <v>15.628</v>
       </c>
       <c r="G411">
-        <v>4.802</v>
+        <v>4.801</v>
       </c>
       <c r="H411">
         <v>23.395</v>
@@ -16975,7 +16975,7 @@
         <v>263.614</v>
       </c>
       <c r="M411">
-        <v>551.69</v>
+        <v>551.689</v>
       </c>
     </row>
     <row r="412" spans="1:13">
@@ -16989,7 +16989,7 @@
         <v>250.384</v>
       </c>
       <c r="D412">
-        <v>577.805</v>
+        <v>577.803</v>
       </c>
       <c r="E412">
         <v>283.244</v>
@@ -16998,7 +16998,7 @@
         <v>14.216</v>
       </c>
       <c r="G412">
-        <v>5.444</v>
+        <v>5.442</v>
       </c>
       <c r="H412">
         <v>24.517</v>
@@ -17016,7 +17016,7 @@
         <v>252.265</v>
       </c>
       <c r="M412">
-        <v>579.685</v>
+        <v>579.684</v>
       </c>
     </row>
     <row r="413" spans="1:13">
@@ -17030,7 +17030,7 @@
         <v>261.125</v>
       </c>
       <c r="D413">
-        <v>611.326</v>
+        <v>611.325</v>
       </c>
       <c r="E413">
         <v>305.688</v>
@@ -17039,7 +17039,7 @@
         <v>13.984</v>
       </c>
       <c r="G413">
-        <v>6.141</v>
+        <v>6.139</v>
       </c>
       <c r="H413">
         <v>24.388</v>
@@ -17057,7 +17057,7 @@
         <v>267.851</v>
       </c>
       <c r="M413">
-        <v>618.052</v>
+        <v>618.051</v>
       </c>
     </row>
     <row r="414" spans="1:13">
@@ -17071,7 +17071,7 @@
         <v>261.96</v>
       </c>
       <c r="D414">
-        <v>598.565</v>
+        <v>598.563</v>
       </c>
       <c r="E414">
         <v>295.163</v>
@@ -17080,7 +17080,7 @@
         <v>14.911</v>
       </c>
       <c r="G414">
-        <v>6.18</v>
+        <v>6.178</v>
       </c>
       <c r="H414">
         <v>20.351</v>
@@ -17098,7 +17098,7 @@
         <v>271.64</v>
       </c>
       <c r="M414">
-        <v>608.245</v>
+        <v>608.243</v>
       </c>
     </row>
     <row r="415" spans="1:13">
@@ -17112,7 +17112,7 @@
         <v>274.809</v>
       </c>
       <c r="D415">
-        <v>568.536</v>
+        <v>568.535</v>
       </c>
       <c r="E415">
         <v>252.333</v>
@@ -17121,7 +17121,7 @@
         <v>15.628</v>
       </c>
       <c r="G415">
-        <v>6.373</v>
+        <v>6.371</v>
       </c>
       <c r="H415">
         <v>19.392</v>
@@ -17139,7 +17139,7 @@
         <v>280.203</v>
       </c>
       <c r="M415">
-        <v>573.93</v>
+        <v>573.928</v>
       </c>
     </row>
     <row r="416" spans="1:13">
@@ -17153,7 +17153,7 @@
         <v>277.063</v>
       </c>
       <c r="D416">
-        <v>531.431</v>
+        <v>531.43</v>
       </c>
       <c r="E416">
         <v>215.524</v>
@@ -17162,7 +17162,7 @@
         <v>15.902</v>
       </c>
       <c r="G416">
-        <v>6.525</v>
+        <v>6.523</v>
       </c>
       <c r="H416">
         <v>16.418</v>
@@ -17180,7 +17180,7 @@
         <v>282.741</v>
       </c>
       <c r="M416">
-        <v>537.11</v>
+        <v>537.108</v>
       </c>
     </row>
     <row r="417" spans="1:13">
@@ -17194,7 +17194,7 @@
         <v>267.952</v>
       </c>
       <c r="D417">
-        <v>478.06</v>
+        <v>478.059</v>
       </c>
       <c r="E417">
         <v>170.621</v>
@@ -17203,7 +17203,7 @@
         <v>15.112</v>
       </c>
       <c r="G417">
-        <v>5.736</v>
+        <v>5.734</v>
       </c>
       <c r="H417">
         <v>18.639</v>
@@ -17221,7 +17221,7 @@
         <v>273.896</v>
       </c>
       <c r="M417">
-        <v>484.005</v>
+        <v>484.003</v>
       </c>
     </row>
     <row r="418" spans="1:13">
@@ -17235,7 +17235,7 @@
         <v>275.12</v>
       </c>
       <c r="D418">
-        <v>489.34</v>
+        <v>489.338</v>
       </c>
       <c r="E418">
         <v>169.17</v>
@@ -17244,7 +17244,7 @@
         <v>15.766</v>
       </c>
       <c r="G418">
-        <v>5.06</v>
+        <v>5.058</v>
       </c>
       <c r="H418">
         <v>24.223</v>
@@ -17262,7 +17262,7 @@
         <v>282.458</v>
       </c>
       <c r="M418">
-        <v>496.678</v>
+        <v>496.677</v>
       </c>
     </row>
     <row r="419" spans="1:13">
@@ -17276,7 +17276,7 @@
         <v>270.475</v>
       </c>
       <c r="D419">
-        <v>515.786</v>
+        <v>515.785</v>
       </c>
       <c r="E419">
         <v>201.075</v>
@@ -17285,7 +17285,7 @@
         <v>14.993</v>
       </c>
       <c r="G419">
-        <v>4.043</v>
+        <v>4.042</v>
       </c>
       <c r="H419">
         <v>25.199</v>
@@ -17303,7 +17303,7 @@
         <v>277.249</v>
       </c>
       <c r="M419">
-        <v>522.559</v>
+        <v>522.558</v>
       </c>
     </row>
     <row r="420" spans="1:13">
@@ -17317,7 +17317,7 @@
         <v>283.636</v>
       </c>
       <c r="D420">
-        <v>541.993</v>
+        <v>541.992</v>
       </c>
       <c r="E420">
         <v>214.21</v>
@@ -17326,7 +17326,7 @@
         <v>15.913</v>
       </c>
       <c r="G420">
-        <v>3.717</v>
+        <v>3.716</v>
       </c>
       <c r="H420">
         <v>24.517</v>
@@ -17344,7 +17344,7 @@
         <v>289.959</v>
       </c>
       <c r="M420">
-        <v>548.316</v>
+        <v>548.315</v>
       </c>
     </row>
     <row r="421" spans="1:13">
@@ -17358,7 +17358,7 @@
         <v>290.845</v>
       </c>
       <c r="D421">
-        <v>592.148</v>
+        <v>592.147</v>
       </c>
       <c r="E421">
         <v>257.426</v>
@@ -17367,7 +17367,7 @@
         <v>16.297</v>
       </c>
       <c r="G421">
-        <v>3.342</v>
+        <v>3.341</v>
       </c>
       <c r="H421">
         <v>24.239</v>
@@ -17385,7 +17385,7 @@
         <v>295.687</v>
       </c>
       <c r="M421">
-        <v>596.99</v>
+        <v>596.989</v>
       </c>
     </row>
     <row r="422" spans="1:13">
@@ -17399,7 +17399,7 @@
         <v>261.666</v>
       </c>
       <c r="D422">
-        <v>487.988</v>
+        <v>487.987</v>
       </c>
       <c r="E422">
         <v>183.513</v>
@@ -17408,7 +17408,7 @@
         <v>14.248</v>
       </c>
       <c r="G422">
-        <v>3.656</v>
+        <v>3.655</v>
       </c>
       <c r="H422">
         <v>24.906</v>
@@ -17426,7 +17426,7 @@
         <v>264.65</v>
       </c>
       <c r="M422">
-        <v>490.972</v>
+        <v>490.97</v>
       </c>
     </row>
     <row r="423" spans="1:13">
@@ -17440,7 +17440,7 @@
         <v>285.146</v>
       </c>
       <c r="D423">
-        <v>574.742</v>
+        <v>574.741</v>
       </c>
       <c r="E423">
         <v>238.832</v>
@@ -17449,7 +17449,7 @@
         <v>15.392</v>
       </c>
       <c r="G423">
-        <v>5.255</v>
+        <v>5.253</v>
       </c>
       <c r="H423">
         <v>30.117</v>
@@ -17467,7 +17467,7 @@
         <v>287.435</v>
       </c>
       <c r="M423">
-        <v>577.031</v>
+        <v>577.029</v>
       </c>
     </row>
     <row r="424" spans="1:13">
@@ -17481,7 +17481,7 @@
         <v>278.386</v>
       </c>
       <c r="D424">
-        <v>566.494</v>
+        <v>566.492</v>
       </c>
       <c r="E424">
         <v>236.135</v>
@@ -17490,7 +17490,7 @@
         <v>14.824</v>
       </c>
       <c r="G424">
-        <v>5.801</v>
+        <v>5.799</v>
       </c>
       <c r="H424">
         <v>31.349</v>
@@ -17508,7 +17508,7 @@
         <v>277.639</v>
       </c>
       <c r="M424">
-        <v>565.747</v>
+        <v>565.746</v>
       </c>
     </row>
     <row r="425" spans="1:13">
@@ -17522,7 +17522,7 @@
         <v>286.01</v>
       </c>
       <c r="D425">
-        <v>594.186</v>
+        <v>594.184</v>
       </c>
       <c r="E425">
         <v>257.448</v>
@@ -17531,7 +17531,7 @@
         <v>14.904</v>
       </c>
       <c r="G425">
-        <v>6.642</v>
+        <v>6.64</v>
       </c>
       <c r="H425">
         <v>29.181</v>
@@ -17549,7 +17549,7 @@
         <v>285.363</v>
       </c>
       <c r="M425">
-        <v>593.539</v>
+        <v>593.537</v>
       </c>
     </row>
     <row r="426" spans="1:13">
@@ -17563,7 +17563,7 @@
         <v>281.995</v>
       </c>
       <c r="D426">
-        <v>555.728</v>
+        <v>555.726</v>
       </c>
       <c r="E426">
         <v>225.519</v>
@@ -17572,7 +17572,7 @@
         <v>15.616</v>
       </c>
       <c r="G426">
-        <v>6.697</v>
+        <v>6.695</v>
       </c>
       <c r="H426">
         <v>25.9</v>
@@ -17590,7 +17590,7 @@
         <v>284.184</v>
       </c>
       <c r="M426">
-        <v>557.917</v>
+        <v>557.915</v>
       </c>
     </row>
     <row r="427" spans="1:13">
@@ -17604,7 +17604,7 @@
         <v>295.653</v>
       </c>
       <c r="D427">
-        <v>562.008</v>
+        <v>562.006</v>
       </c>
       <c r="E427">
         <v>222.17</v>
@@ -17613,7 +17613,7 @@
         <v>15.849</v>
       </c>
       <c r="G427">
-        <v>7.002</v>
+        <v>7</v>
       </c>
       <c r="H427">
         <v>21.333</v>
@@ -17631,7 +17631,7 @@
         <v>295.092</v>
       </c>
       <c r="M427">
-        <v>561.447</v>
+        <v>561.445</v>
       </c>
     </row>
     <row r="428" spans="1:13">
@@ -17645,7 +17645,7 @@
         <v>295.523</v>
       </c>
       <c r="D428">
-        <v>542.021</v>
+        <v>542.018</v>
       </c>
       <c r="E428">
         <v>197.092</v>
@@ -17654,7 +17654,7 @@
         <v>15.891</v>
       </c>
       <c r="G428">
-        <v>6.833</v>
+        <v>6.831</v>
       </c>
       <c r="H428">
         <v>26.681</v>
@@ -17672,7 +17672,7 @@
         <v>295.746</v>
       </c>
       <c r="M428">
-        <v>542.243</v>
+        <v>542.241</v>
       </c>
     </row>
     <row r="429" spans="1:13">
@@ -17686,7 +17686,7 @@
         <v>287.603</v>
       </c>
       <c r="D429">
-        <v>483.297</v>
+        <v>483.295</v>
       </c>
       <c r="E429">
         <v>145.715</v>
@@ -17695,7 +17695,7 @@
         <v>15.414</v>
       </c>
       <c r="G429">
-        <v>6.229</v>
+        <v>6.227</v>
       </c>
       <c r="H429">
         <v>28.335</v>
@@ -17713,7 +17713,7 @@
         <v>286.64</v>
       </c>
       <c r="M429">
-        <v>482.333</v>
+        <v>482.331</v>
       </c>
     </row>
     <row r="430" spans="1:13">
@@ -17727,7 +17727,7 @@
         <v>299.416</v>
       </c>
       <c r="D430">
-        <v>500.577</v>
+        <v>500.575</v>
       </c>
       <c r="E430">
         <v>146.248</v>
@@ -17736,7 +17736,7 @@
         <v>15.989</v>
       </c>
       <c r="G430">
-        <v>5.549</v>
+        <v>5.548</v>
       </c>
       <c r="H430">
         <v>33.374</v>
@@ -17754,7 +17754,7 @@
         <v>302.388</v>
       </c>
       <c r="M430">
-        <v>503.548</v>
+        <v>503.546</v>
       </c>
     </row>
     <row r="431" spans="1:13">
@@ -17768,7 +17768,7 @@
         <v>297.828</v>
       </c>
       <c r="D431">
-        <v>503.161</v>
+        <v>503.16</v>
       </c>
       <c r="E431">
         <v>155.001</v>
@@ -17777,7 +17777,7 @@
         <v>15.347</v>
       </c>
       <c r="G431">
-        <v>4.393</v>
+        <v>4.392</v>
       </c>
       <c r="H431">
         <v>30.591</v>
@@ -17795,7 +17795,7 @@
         <v>296.006</v>
       </c>
       <c r="M431">
-        <v>501.339</v>
+        <v>501.338</v>
       </c>
     </row>
     <row r="432" spans="1:13">
@@ -17809,7 +17809,7 @@
         <v>312.007</v>
       </c>
       <c r="D432">
-        <v>547.792</v>
+        <v>547.791</v>
       </c>
       <c r="E432">
         <v>181.289</v>
@@ -17818,7 +17818,7 @@
         <v>16.003</v>
       </c>
       <c r="G432">
-        <v>3.995</v>
+        <v>3.994</v>
       </c>
       <c r="H432">
         <v>34.497</v>
@@ -17836,7 +17836,7 @@
         <v>313.995</v>
       </c>
       <c r="M432">
-        <v>549.78</v>
+        <v>549.778</v>
       </c>
     </row>
     <row r="433" spans="1:13">
@@ -17850,7 +17850,7 @@
         <v>331.138</v>
       </c>
       <c r="D433">
-        <v>597.528</v>
+        <v>597.527</v>
       </c>
       <c r="E433">
         <v>204.758</v>
@@ -17859,7 +17859,7 @@
         <v>15.825</v>
       </c>
       <c r="G433">
-        <v>3.7</v>
+        <v>3.698</v>
       </c>
       <c r="H433">
         <v>42.108</v>
@@ -17877,7 +17877,7 @@
         <v>327.188</v>
       </c>
       <c r="M433">
-        <v>593.578</v>
+        <v>593.576</v>
       </c>
     </row>
     <row r="434" spans="1:13">
@@ -17891,7 +17891,7 @@
         <v>300.535</v>
       </c>
       <c r="D434">
-        <v>542.173</v>
+        <v>542.171</v>
       </c>
       <c r="E434">
         <v>185.146</v>
@@ -17900,7 +17900,7 @@
         <v>14.369</v>
       </c>
       <c r="G434">
-        <v>4.168</v>
+        <v>4.166</v>
       </c>
       <c r="H434">
         <v>37.955</v>
@@ -17918,7 +17918,7 @@
         <v>299.991</v>
       </c>
       <c r="M434">
-        <v>541.629</v>
+        <v>541.627</v>
       </c>
     </row>
     <row r="435" spans="1:13">
@@ -17932,7 +17932,7 @@
         <v>321.487</v>
       </c>
       <c r="D435">
-        <v>604.365</v>
+        <v>604.362</v>
       </c>
       <c r="E435">
         <v>213.526</v>
@@ -17941,7 +17941,7 @@
         <v>16.239</v>
       </c>
       <c r="G435">
-        <v>5.992</v>
+        <v>5.989</v>
       </c>
       <c r="H435">
         <v>47.122</v>
@@ -17959,7 +17959,7 @@
         <v>313.922</v>
       </c>
       <c r="M435">
-        <v>596.8</v>
+        <v>596.797</v>
       </c>
     </row>
     <row r="436" spans="1:13">
@@ -17973,7 +17973,7 @@
         <v>314.073</v>
       </c>
       <c r="D436">
-        <v>607.167</v>
+        <v>607.164</v>
       </c>
       <c r="E436">
         <v>219.093</v>
@@ -17982,7 +17982,7 @@
         <v>15.79</v>
       </c>
       <c r="G436">
-        <v>6.721</v>
+        <v>6.718</v>
       </c>
       <c r="H436">
         <v>51.49</v>
@@ -18000,7 +18000,7 @@
         <v>313.25</v>
       </c>
       <c r="M436">
-        <v>606.344</v>
+        <v>606.341</v>
       </c>
     </row>
     <row r="437" spans="1:13">
@@ -18014,7 +18014,7 @@
         <v>324.185</v>
       </c>
       <c r="D437">
-        <v>668.732</v>
+        <v>668.729</v>
       </c>
       <c r="E437">
         <v>268.237</v>
@@ -18023,7 +18023,7 @@
         <v>16.318</v>
       </c>
       <c r="G437">
-        <v>7.369</v>
+        <v>7.365</v>
       </c>
       <c r="H437">
         <v>52.623</v>
@@ -18041,7 +18041,7 @@
         <v>320.296</v>
       </c>
       <c r="M437">
-        <v>664.844</v>
+        <v>664.841</v>
       </c>
     </row>
     <row r="438" spans="1:13">
@@ -18055,7 +18055,7 @@
         <v>313.335</v>
       </c>
       <c r="D438">
-        <v>675.424</v>
+        <v>675.421</v>
       </c>
       <c r="E438">
         <v>287.514</v>
@@ -18064,7 +18064,7 @@
         <v>16.206</v>
       </c>
       <c r="G438">
-        <v>7.716</v>
+        <v>7.713</v>
       </c>
       <c r="H438">
         <v>50.653</v>
@@ -18082,7 +18082,7 @@
         <v>311.788</v>
       </c>
       <c r="M438">
-        <v>673.878</v>
+        <v>673.874</v>
       </c>
     </row>
     <row r="439" spans="1:13">
@@ -18096,7 +18096,7 @@
         <v>330.507</v>
       </c>
       <c r="D439">
-        <v>646.207</v>
+        <v>646.204</v>
       </c>
       <c r="E439">
         <v>251.82</v>
@@ -18105,7 +18105,7 @@
         <v>16.514</v>
       </c>
       <c r="G439">
-        <v>7.867</v>
+        <v>7.864</v>
       </c>
       <c r="H439">
         <v>39.499</v>
@@ -18123,7 +18123,7 @@
         <v>330.18</v>
       </c>
       <c r="M439">
-        <v>645.88</v>
+        <v>645.877</v>
       </c>
     </row>
     <row r="440" spans="1:13">
@@ -18137,7 +18137,7 @@
         <v>333.607</v>
       </c>
       <c r="D440">
-        <v>599.164</v>
+        <v>599.16</v>
       </c>
       <c r="E440">
         <v>209.193</v>
@@ -18146,7 +18146,7 @@
         <v>16.454</v>
       </c>
       <c r="G440">
-        <v>7.742</v>
+        <v>7.738</v>
       </c>
       <c r="H440">
         <v>32.167</v>
@@ -18164,7 +18164,7 @@
         <v>331.84</v>
       </c>
       <c r="M440">
-        <v>597.397</v>
+        <v>597.394</v>
       </c>
     </row>
     <row r="441" spans="1:13">
@@ -18178,7 +18178,7 @@
         <v>318.84</v>
       </c>
       <c r="D441">
-        <v>531.891</v>
+        <v>531.888</v>
       </c>
       <c r="E441">
         <v>159.42</v>
@@ -18187,7 +18187,7 @@
         <v>15.944</v>
       </c>
       <c r="G441">
-        <v>7.027</v>
+        <v>7.024</v>
       </c>
       <c r="H441">
         <v>30.66</v>
@@ -18205,7 +18205,7 @@
         <v>319.736</v>
       </c>
       <c r="M441">
-        <v>532.787</v>
+        <v>532.783</v>
       </c>
     </row>
     <row r="442" spans="1:13">
@@ -18219,7 +18219,7 @@
         <v>330.125</v>
       </c>
       <c r="D442">
-        <v>552.097</v>
+        <v>552.094</v>
       </c>
       <c r="E442">
         <v>152.441</v>
@@ -18228,7 +18228,7 @@
         <v>16.495</v>
       </c>
       <c r="G442">
-        <v>6.167</v>
+        <v>6.164</v>
       </c>
       <c r="H442">
         <v>46.87</v>
@@ -18246,7 +18246,7 @@
         <v>331.946</v>
       </c>
       <c r="M442">
-        <v>553.918</v>
+        <v>553.915</v>
       </c>
     </row>
     <row r="443" spans="1:13">
@@ -18260,7 +18260,7 @@
         <v>327.317</v>
       </c>
       <c r="D443">
-        <v>551.712</v>
+        <v>551.709</v>
       </c>
       <c r="E443">
         <v>154.392</v>
@@ -18269,7 +18269,7 @@
         <v>15.94</v>
       </c>
       <c r="G443">
-        <v>4.856</v>
+        <v>4.853</v>
       </c>
       <c r="H443">
         <v>49.207</v>
@@ -18287,7 +18287,7 @@
         <v>324.878</v>
       </c>
       <c r="M443">
-        <v>549.273</v>
+        <v>549.271</v>
       </c>
     </row>
     <row r="444" spans="1:13">
@@ -18301,7 +18301,7 @@
         <v>323.102</v>
       </c>
       <c r="D444">
-        <v>614.727</v>
+        <v>614.724</v>
       </c>
       <c r="E444">
         <v>205.569</v>
@@ -18310,7 +18310,7 @@
         <v>16.339</v>
       </c>
       <c r="G444">
-        <v>4.523</v>
+        <v>4.521</v>
       </c>
       <c r="H444">
         <v>65.193</v>
@@ -18328,7 +18328,7 @@
         <v>326.377</v>
       </c>
       <c r="M444">
-        <v>618.001</v>
+        <v>617.999</v>
       </c>
     </row>
     <row r="445" spans="1:13">
@@ -18342,7 +18342,7 @@
         <v>318.013</v>
       </c>
       <c r="D445">
-        <v>626.306</v>
+        <v>626.304</v>
       </c>
       <c r="E445">
         <v>229.265</v>
@@ -18351,7 +18351,7 @@
         <v>17.14</v>
       </c>
       <c r="G445">
-        <v>3.808</v>
+        <v>3.806</v>
       </c>
       <c r="H445">
         <v>58.08</v>
@@ -18369,7 +18369,7 @@
         <v>313.375</v>
       </c>
       <c r="M445">
-        <v>621.668</v>
+        <v>621.666</v>
       </c>
     </row>
     <row r="446" spans="1:13">
@@ -18383,7 +18383,7 @@
         <v>294.082</v>
       </c>
       <c r="D446">
-        <v>544.888</v>
+        <v>544.885</v>
       </c>
       <c r="E446">
         <v>173.845</v>
@@ -18392,7 +18392,7 @@
         <v>15.517</v>
       </c>
       <c r="G446">
-        <v>4.327</v>
+        <v>4.324</v>
       </c>
       <c r="H446">
         <v>57.117</v>
@@ -18410,7 +18410,7 @@
         <v>285.834</v>
       </c>
       <c r="M446">
-        <v>536.64</v>
+        <v>536.638</v>
       </c>
     </row>
     <row r="447" spans="1:13">
@@ -18424,7 +18424,7 @@
         <v>319.016</v>
       </c>
       <c r="D447">
-        <v>624.906</v>
+        <v>624.902</v>
       </c>
       <c r="E447">
         <v>213.036</v>
@@ -18433,7 +18433,7 @@
         <v>17.252</v>
       </c>
       <c r="G447">
-        <v>6.314</v>
+        <v>6.311</v>
       </c>
       <c r="H447">
         <v>69.287</v>
@@ -18451,7 +18451,7 @@
         <v>316.999</v>
       </c>
       <c r="M447">
-        <v>622.888</v>
+        <v>622.885</v>
       </c>
     </row>
     <row r="448" spans="1:13">
@@ -18465,7 +18465,7 @@
         <v>303.16</v>
       </c>
       <c r="D448">
-        <v>650.891</v>
+        <v>650.887</v>
       </c>
       <c r="E448">
         <v>251.513</v>
@@ -18474,7 +18474,7 @@
         <v>16.341</v>
       </c>
       <c r="G448">
-        <v>7.089</v>
+        <v>7.085</v>
       </c>
       <c r="H448">
         <v>72.787</v>
@@ -18492,7 +18492,7 @@
         <v>307.113</v>
       </c>
       <c r="M448">
-        <v>654.845</v>
+        <v>654.84</v>
       </c>
     </row>
     <row r="449" spans="1:13">
@@ -18506,7 +18506,7 @@
         <v>318.693</v>
       </c>
       <c r="D449">
-        <v>692.761</v>
+        <v>692.756</v>
       </c>
       <c r="E449">
         <v>288.502</v>
@@ -18515,7 +18515,7 @@
         <v>16.616</v>
       </c>
       <c r="G449">
-        <v>7.833</v>
+        <v>7.828</v>
       </c>
       <c r="H449">
         <v>61.117</v>
@@ -18533,7 +18533,7 @@
         <v>322.934</v>
       </c>
       <c r="M449">
-        <v>697.002</v>
+        <v>696.998</v>
       </c>
     </row>
     <row r="450" spans="1:13">
@@ -18547,7 +18547,7 @@
         <v>321.411</v>
       </c>
       <c r="D450">
-        <v>685.416</v>
+        <v>685.411</v>
       </c>
       <c r="E450">
         <v>285.318</v>
@@ -18556,7 +18556,7 @@
         <v>16.212</v>
       </c>
       <c r="G450">
-        <v>7.825</v>
+        <v>7.821</v>
       </c>
       <c r="H450">
         <v>54.65</v>
@@ -18574,7 +18574,7 @@
         <v>323.378</v>
       </c>
       <c r="M450">
-        <v>687.383</v>
+        <v>687.379</v>
       </c>
     </row>
     <row r="451" spans="1:13">
@@ -18588,7 +18588,7 @@
         <v>343.501</v>
       </c>
       <c r="D451">
-        <v>645.248</v>
+        <v>645.243</v>
       </c>
       <c r="E451">
         <v>228.235</v>
@@ -18597,7 +18597,7 @@
         <v>16.814</v>
       </c>
       <c r="G451">
-        <v>8.338</v>
+        <v>8.333</v>
       </c>
       <c r="H451">
         <v>48.36</v>
@@ -18615,7 +18615,7 @@
         <v>343.438</v>
       </c>
       <c r="M451">
-        <v>645.185</v>
+        <v>645.18</v>
       </c>
     </row>
     <row r="452" spans="1:13">
@@ -18629,7 +18629,7 @@
         <v>348.211</v>
       </c>
       <c r="D452">
-        <v>617.638</v>
+        <v>617.633</v>
       </c>
       <c r="E452">
         <v>191.105</v>
@@ -18638,7 +18638,7 @@
         <v>16.773</v>
       </c>
       <c r="G452">
-        <v>8.216</v>
+        <v>8.211</v>
       </c>
       <c r="H452">
         <v>53.333</v>
@@ -18656,7 +18656,7 @@
         <v>348.562</v>
       </c>
       <c r="M452">
-        <v>617.989</v>
+        <v>617.984</v>
       </c>
     </row>
     <row r="453" spans="1:13">
@@ -18670,7 +18670,7 @@
         <v>332.045</v>
       </c>
       <c r="D453">
-        <v>570.532</v>
+        <v>570.528</v>
       </c>
       <c r="E453">
         <v>169.421</v>
@@ -18679,7 +18679,7 @@
         <v>16.289</v>
       </c>
       <c r="G453">
-        <v>7.386</v>
+        <v>7.381</v>
       </c>
       <c r="H453">
         <v>45.391</v>
@@ -18697,7 +18697,7 @@
         <v>330.354</v>
       </c>
       <c r="M453">
-        <v>568.841</v>
+        <v>568.836</v>
       </c>
     </row>
     <row r="454" spans="1:13">
@@ -18711,7 +18711,7 @@
         <v>346.132</v>
       </c>
       <c r="D454">
-        <v>627.848</v>
+        <v>627.844</v>
       </c>
       <c r="E454">
         <v>192.185</v>
@@ -18720,7 +18720,7 @@
         <v>16.479</v>
       </c>
       <c r="G454">
-        <v>6.551</v>
+        <v>6.547</v>
       </c>
       <c r="H454">
         <v>66.501</v>
@@ -18738,7 +18738,7 @@
         <v>346.68</v>
       </c>
       <c r="M454">
-        <v>628.395</v>
+        <v>628.391</v>
       </c>
     </row>
     <row r="455" spans="1:13">
@@ -18752,7 +18752,7 @@
         <v>348.004</v>
       </c>
       <c r="D455">
-        <v>642.204</v>
+        <v>642.201</v>
       </c>
       <c r="E455">
         <v>205.035</v>
@@ -18761,7 +18761,7 @@
         <v>16.841</v>
       </c>
       <c r="G455">
-        <v>5.223</v>
+        <v>5.219</v>
       </c>
       <c r="H455">
         <v>67.102</v>
@@ -18779,7 +18779,7 @@
         <v>342.917</v>
       </c>
       <c r="M455">
-        <v>637.118</v>
+        <v>637.115</v>
       </c>
     </row>
     <row r="456" spans="1:13">
@@ -18793,7 +18793,7 @@
         <v>360.349</v>
       </c>
       <c r="D456">
-        <v>691.817</v>
+        <v>691.813</v>
       </c>
       <c r="E456">
         <v>241.363</v>
@@ -18802,7 +18802,7 @@
         <v>17.912</v>
       </c>
       <c r="G456">
-        <v>4.79</v>
+        <v>4.787</v>
       </c>
       <c r="H456">
         <v>67.403</v>
@@ -18820,7 +18820,7 @@
         <v>354.453</v>
       </c>
       <c r="M456">
-        <v>685.92</v>
+        <v>685.917</v>
       </c>
     </row>
     <row r="457" spans="1:13">
@@ -18831,10 +18831,10 @@
         <v>150.936</v>
       </c>
       <c r="C457">
-        <v>357.023</v>
+        <v>368.534</v>
       </c>
       <c r="D457">
-        <v>664.472</v>
+        <v>675.983</v>
       </c>
       <c r="E457">
         <v>218.369</v>
@@ -18849,7 +18849,7 @@
         <v>66.871</v>
       </c>
       <c r="I457">
-        <v>167.13</v>
+        <v>178.64</v>
       </c>
       <c r="J457">
         <v>38.958</v>
@@ -18858,10 +18858,10 @@
         <v>141.169</v>
       </c>
       <c r="L457">
-        <v>347.256</v>
+        <v>358.767</v>
       </c>
       <c r="M457">
-        <v>654.705</v>
+        <v>666.216</v>
       </c>
     </row>
     <row r="458" spans="1:13">
@@ -18872,10 +18872,10 @@
         <v>140.823</v>
       </c>
       <c r="C458">
-        <v>329.844</v>
+        <v>340.241</v>
       </c>
       <c r="D458">
-        <v>604.497</v>
+        <v>614.894</v>
       </c>
       <c r="E458">
         <v>200.874</v>
@@ -18884,13 +18884,13 @@
         <v>15.872</v>
       </c>
       <c r="G458">
-        <v>4.913</v>
+        <v>4.914</v>
       </c>
       <c r="H458">
         <v>52.993</v>
       </c>
       <c r="I458">
-        <v>153.689</v>
+        <v>164.086</v>
       </c>
       <c r="J458">
         <v>35.332</v>
@@ -18899,10 +18899,10 @@
         <v>134.997</v>
       </c>
       <c r="L458">
-        <v>324.018</v>
+        <v>334.415</v>
       </c>
       <c r="M458">
-        <v>598.671</v>
+        <v>609.068</v>
       </c>
     </row>
     <row r="459" spans="1:13">
@@ -18913,10 +18913,10 @@
         <v>156.949</v>
       </c>
       <c r="C459">
-        <v>364.046</v>
+        <v>375.556</v>
       </c>
       <c r="D459">
-        <v>676.472</v>
+        <v>687.983</v>
       </c>
       <c r="E459">
         <v>203.761</v>
@@ -18931,7 +18931,7 @@
         <v>83.795</v>
       </c>
       <c r="I459">
-        <v>167.172</v>
+        <v>178.682</v>
       </c>
       <c r="J459">
         <v>39.925</v>
@@ -18940,10 +18940,10 @@
         <v>147.768</v>
       </c>
       <c r="L459">
-        <v>354.865</v>
+        <v>366.376</v>
       </c>
       <c r="M459">
-        <v>667.291</v>
+        <v>678.802</v>
       </c>
     </row>
     <row r="460" spans="1:13">
@@ -18954,10 +18954,10 @@
         <v>150.611</v>
       </c>
       <c r="C460">
-        <v>349.52</v>
+        <v>360.66</v>
       </c>
       <c r="D460">
-        <v>656.15</v>
+        <v>667.29</v>
       </c>
       <c r="E460">
         <v>186.307</v>
@@ -18966,13 +18966,13 @@
         <v>16.99</v>
       </c>
       <c r="G460">
-        <v>8.07</v>
+        <v>8.071</v>
       </c>
       <c r="H460">
         <v>95.262</v>
       </c>
       <c r="I460">
-        <v>159.726</v>
+        <v>170.865</v>
       </c>
       <c r="J460">
         <v>39.183</v>
@@ -18981,10 +18981,10 @@
         <v>147.282</v>
       </c>
       <c r="L460">
-        <v>346.191</v>
+        <v>357.331</v>
       </c>
       <c r="M460">
-        <v>652.821</v>
+        <v>663.961</v>
       </c>
     </row>
     <row r="461" spans="1:13">
@@ -18995,10 +18995,10 @@
         <v>155.303</v>
       </c>
       <c r="C461">
-        <v>355.964</v>
+        <v>367.474</v>
       </c>
       <c r="D461">
-        <v>712.523</v>
+        <v>724.034</v>
       </c>
       <c r="E461">
         <v>244.673</v>
@@ -19007,13 +19007,13 @@
         <v>17.839</v>
       </c>
       <c r="G461">
-        <v>9.194</v>
+        <v>9.195</v>
       </c>
       <c r="H461">
         <v>84.853</v>
       </c>
       <c r="I461">
-        <v>161.739</v>
+        <v>173.25</v>
       </c>
       <c r="J461">
         <v>38.921</v>
@@ -19022,10 +19022,10 @@
         <v>153.715</v>
       </c>
       <c r="L461">
-        <v>354.375</v>
+        <v>365.886</v>
       </c>
       <c r="M461">
-        <v>710.935</v>
+        <v>722.446</v>
       </c>
     </row>
     <row r="462" spans="1:13">
@@ -19036,10 +19036,10 @@
         <v>151.148</v>
       </c>
       <c r="C462">
-        <v>352.927</v>
+        <v>364.066</v>
       </c>
       <c r="D462">
-        <v>749.413</v>
+        <v>760.552</v>
       </c>
       <c r="E462">
         <v>291.254</v>
@@ -19054,7 +19054,7 @@
         <v>78.526</v>
       </c>
       <c r="I462">
-        <v>163.044</v>
+        <v>174.184</v>
       </c>
       <c r="J462">
         <v>38.734</v>
@@ -19063,10 +19063,10 @@
         <v>153.31</v>
       </c>
       <c r="L462">
-        <v>355.089</v>
+        <v>366.228</v>
       </c>
       <c r="M462">
-        <v>751.575</v>
+        <v>762.715</v>
       </c>
     </row>
     <row r="463" spans="1:13">
@@ -19077,10 +19077,10 @@
         <v>156.691</v>
       </c>
       <c r="C463">
-        <v>365.395</v>
+        <v>376.905</v>
       </c>
       <c r="D463">
-        <v>697.388</v>
+        <v>708.899</v>
       </c>
       <c r="E463">
         <v>239.186</v>
@@ -19089,13 +19089,13 @@
         <v>17.479</v>
       </c>
       <c r="G463">
-        <v>9.73</v>
+        <v>9.731</v>
       </c>
       <c r="H463">
         <v>65.598</v>
       </c>
       <c r="I463">
-        <v>169.109</v>
+        <v>180.619</v>
       </c>
       <c r="J463">
         <v>39.595</v>
@@ -19104,10 +19104,10 @@
         <v>157.134</v>
       </c>
       <c r="L463">
-        <v>365.838</v>
+        <v>377.348</v>
       </c>
       <c r="M463">
-        <v>697.831</v>
+        <v>709.342</v>
       </c>
     </row>
     <row r="464" spans="1:13">
@@ -19118,10 +19118,10 @@
         <v>158.933</v>
       </c>
       <c r="C464">
-        <v>369.015</v>
+        <v>380.526</v>
       </c>
       <c r="D464">
-        <v>657.829</v>
+        <v>669.34</v>
       </c>
       <c r="E464">
         <v>196.283</v>
@@ -19130,13 +19130,13 @@
         <v>17.706</v>
       </c>
       <c r="G464">
-        <v>9.597</v>
+        <v>9.598</v>
       </c>
       <c r="H464">
         <v>65.227</v>
       </c>
       <c r="I464">
-        <v>170.473</v>
+        <v>181.984</v>
       </c>
       <c r="J464">
         <v>39.609</v>
@@ -19145,10 +19145,10 @@
         <v>157.381</v>
       </c>
       <c r="L464">
-        <v>367.463</v>
+        <v>378.974</v>
       </c>
       <c r="M464">
-        <v>656.277</v>
+        <v>667.788</v>
       </c>
     </row>
     <row r="465" spans="1:13">
@@ -19159,10 +19159,10 @@
         <v>154.972</v>
       </c>
       <c r="C465">
-        <v>357.953</v>
+        <v>369.092</v>
       </c>
       <c r="D465">
-        <v>621.528</v>
+        <v>632.668</v>
       </c>
       <c r="E465">
         <v>168.439</v>
@@ -19177,7 +19177,7 @@
         <v>69.321</v>
       </c>
       <c r="I465">
-        <v>165.521</v>
+        <v>176.661</v>
       </c>
       <c r="J465">
         <v>37.46</v>
@@ -19186,10 +19186,10 @@
         <v>151.715</v>
       </c>
       <c r="L465">
-        <v>354.695</v>
+        <v>365.835</v>
       </c>
       <c r="M465">
-        <v>618.27</v>
+        <v>629.41</v>
       </c>
     </row>
     <row r="466" spans="1:13">
@@ -19200,10 +19200,10 @@
         <v>161.893</v>
       </c>
       <c r="C466">
-        <v>366.723</v>
+        <v>378.233</v>
       </c>
       <c r="D466">
-        <v>641.158</v>
+        <v>652.669</v>
       </c>
       <c r="E466">
         <v>172.515</v>
@@ -19212,13 +19212,13 @@
         <v>16.975</v>
       </c>
       <c r="G466">
-        <v>7.445</v>
+        <v>7.446</v>
       </c>
       <c r="H466">
         <v>77.5</v>
       </c>
       <c r="I466">
-        <v>165.618</v>
+        <v>177.129</v>
       </c>
       <c r="J466">
         <v>39.211</v>
@@ -19227,10 +19227,10 @@
         <v>159.116</v>
       </c>
       <c r="L466">
-        <v>363.945</v>
+        <v>375.455</v>
       </c>
       <c r="M466">
-        <v>638.38</v>
+        <v>649.891</v>
       </c>
     </row>
     <row r="467" spans="1:13">
@@ -19241,10 +19241,10 @@
         <v>162.58</v>
       </c>
       <c r="C467">
-        <v>367.2</v>
+        <v>378.339</v>
       </c>
       <c r="D467">
-        <v>676.501</v>
+        <v>687.641</v>
       </c>
       <c r="E467">
         <v>190.842</v>
@@ -19259,7 +19259,7 @@
         <v>95.098</v>
       </c>
       <c r="I467">
-        <v>164.418</v>
+        <v>175.557</v>
       </c>
       <c r="J467">
         <v>40.202</v>
@@ -19268,10 +19268,10 @@
         <v>156.084</v>
       </c>
       <c r="L467">
-        <v>360.704</v>
+        <v>371.843</v>
       </c>
       <c r="M467">
-        <v>670.005</v>
+        <v>681.145</v>
       </c>
     </row>
     <row r="468" spans="1:13">
@@ -19282,10 +19282,10 @@
         <v>167.041</v>
       </c>
       <c r="C468">
-        <v>380.869</v>
+        <v>392.379</v>
       </c>
       <c r="D468">
-        <v>718.973</v>
+        <v>730.484</v>
       </c>
       <c r="E468">
         <v>226.037</v>
@@ -19294,13 +19294,13 @@
         <v>18.027</v>
       </c>
       <c r="G468">
-        <v>5.657</v>
+        <v>5.658</v>
       </c>
       <c r="H468">
         <v>88.383</v>
       </c>
       <c r="I468">
-        <v>173.047</v>
+        <v>184.557</v>
       </c>
       <c r="J468">
         <v>40.781</v>
@@ -19309,10 +19309,10 @@
         <v>161.459</v>
       </c>
       <c r="L468">
-        <v>375.287</v>
+        <v>386.798</v>
       </c>
       <c r="M468">
-        <v>713.392</v>
+        <v>724.903</v>
       </c>
     </row>
     <row r="469" spans="1:13">
@@ -19323,10 +19323,10 @@
         <v>167.958</v>
       </c>
       <c r="C469">
-        <v>382.892</v>
+        <v>393.823</v>
       </c>
       <c r="D469">
-        <v>737.945</v>
+        <v>748.89</v>
       </c>
       <c r="E469">
         <v>248.06</v>
@@ -19335,13 +19335,13 @@
         <v>18.48</v>
       </c>
       <c r="G469">
-        <v>5.437</v>
+        <v>5.45</v>
       </c>
       <c r="H469">
         <v>83.077</v>
       </c>
       <c r="I469">
-        <v>176.398</v>
+        <v>187.33</v>
       </c>
       <c r="J469">
         <v>38.536</v>
@@ -19350,10 +19350,10 @@
         <v>152.108</v>
       </c>
       <c r="L469">
-        <v>367.041</v>
+        <v>377.973</v>
       </c>
       <c r="M469">
-        <v>722.095</v>
+        <v>733.04</v>
       </c>
     </row>
     <row r="470" spans="1:13">
@@ -19364,10 +19364,10 @@
         <v>150.317</v>
       </c>
       <c r="C470">
-        <v>343.631</v>
+        <v>353.504</v>
       </c>
       <c r="D470">
-        <v>702.586</v>
+        <v>712.474</v>
       </c>
       <c r="E470">
         <v>234.459</v>
@@ -19376,13 +19376,13 @@
         <v>16.676</v>
       </c>
       <c r="G470">
-        <v>6.273</v>
+        <v>6.287</v>
       </c>
       <c r="H470">
         <v>101.547</v>
       </c>
       <c r="I470">
-        <v>157.533</v>
+        <v>167.406</v>
       </c>
       <c r="J470">
         <v>35.781</v>
@@ -19391,10 +19391,10 @@
         <v>143.369</v>
       </c>
       <c r="L470">
-        <v>336.683</v>
+        <v>346.556</v>
       </c>
       <c r="M470">
-        <v>695.638</v>
+        <v>705.526</v>
       </c>
     </row>
     <row r="471" spans="1:13">
@@ -19405,10 +19405,10 @@
         <v>169.593</v>
       </c>
       <c r="C471">
-        <v>377.308</v>
+        <v>388.24</v>
       </c>
       <c r="D471">
-        <v>809.34</v>
+        <v>820.291</v>
       </c>
       <c r="E471">
         <v>302.503</v>
@@ -19417,13 +19417,13 @@
         <v>18.388</v>
       </c>
       <c r="G471">
-        <v>8.69</v>
+        <v>8.709</v>
       </c>
       <c r="H471">
         <v>102.452</v>
       </c>
       <c r="I471">
-        <v>169.205</v>
+        <v>180.136</v>
       </c>
       <c r="J471">
         <v>38.511</v>
@@ -19432,10 +19432,10 @@
         <v>158.979</v>
       </c>
       <c r="L471">
-        <v>366.694</v>
+        <v>377.626</v>
       </c>
       <c r="M471">
-        <v>798.727</v>
+        <v>809.677</v>
       </c>
     </row>
     <row r="472" spans="1:13">
@@ -19446,10 +19446,10 @@
         <v>161.701</v>
       </c>
       <c r="C472">
-        <v>356.541</v>
+        <v>367.12</v>
       </c>
       <c r="D472">
-        <v>807.433</v>
+        <v>818.033</v>
       </c>
       <c r="E472">
         <v>303.084</v>
@@ -19458,13 +19458,13 @@
         <v>17.258</v>
       </c>
       <c r="G472">
-        <v>9.861</v>
+        <v>9.882</v>
       </c>
       <c r="H472">
         <v>120.689</v>
       </c>
       <c r="I472">
-        <v>159.157</v>
+        <v>169.736</v>
       </c>
       <c r="J472">
         <v>35.683</v>
@@ -19473,10 +19473,10 @@
         <v>152.516</v>
       </c>
       <c r="L472">
-        <v>347.356</v>
+        <v>357.935</v>
       </c>
       <c r="M472">
-        <v>798.248</v>
+        <v>808.848</v>
       </c>
     </row>
     <row r="473" spans="1:13">
@@ -19487,10 +19487,10 @@
         <v>169.175</v>
       </c>
       <c r="C473">
-        <v>367.049</v>
+        <v>377.981</v>
       </c>
       <c r="D473">
-        <v>827.216</v>
+        <v>838.171</v>
       </c>
       <c r="E473">
         <v>316.615</v>
@@ -19499,13 +19499,13 @@
         <v>18.194</v>
       </c>
       <c r="G473">
-        <v>10.98</v>
+        <v>11.003</v>
       </c>
       <c r="H473">
         <v>114.378</v>
       </c>
       <c r="I473">
-        <v>160.676</v>
+        <v>171.607</v>
       </c>
       <c r="J473">
         <v>37.199</v>
@@ -19514,10 +19514,10 @@
         <v>163.012</v>
       </c>
       <c r="L473">
-        <v>360.887</v>
+        <v>371.818</v>
       </c>
       <c r="M473">
-        <v>821.054</v>
+        <v>832.008</v>
       </c>
     </row>
     <row r="474" spans="1:13">
@@ -19528,10 +19528,10 @@
         <v>166.87</v>
       </c>
       <c r="C474">
-        <v>372.394</v>
+        <v>382.972</v>
       </c>
       <c r="D474">
-        <v>819.899</v>
+        <v>830.502</v>
       </c>
       <c r="E474">
         <v>312.381</v>
@@ -19540,13 +19540,13 @@
         <v>17.02</v>
       </c>
       <c r="G474">
-        <v>11.374</v>
+        <v>11.397</v>
       </c>
       <c r="H474">
         <v>106.731</v>
       </c>
       <c r="I474">
-        <v>167.468</v>
+        <v>178.047</v>
       </c>
       <c r="J474">
         <v>38.056</v>
@@ -19555,10 +19555,10 @@
         <v>166.294</v>
       </c>
       <c r="L474">
-        <v>371.818</v>
+        <v>382.397</v>
       </c>
       <c r="M474">
-        <v>819.324</v>
+        <v>829.926</v>
       </c>
     </row>
     <row r="475" spans="1:13">
@@ -19569,10 +19569,10 @@
         <v>169.97</v>
       </c>
       <c r="C475">
-        <v>381.369</v>
+        <v>392.301</v>
       </c>
       <c r="D475">
-        <v>787.338</v>
+        <v>798.294</v>
       </c>
       <c r="E475">
         <v>303.962</v>
@@ -19581,13 +19581,13 @@
         <v>17.723</v>
       </c>
       <c r="G475">
-        <v>11.524</v>
+        <v>11.549</v>
       </c>
       <c r="H475">
         <v>72.76</v>
       </c>
       <c r="I475">
-        <v>172.059</v>
+        <v>182.99</v>
       </c>
       <c r="J475">
         <v>39.34</v>
@@ -19596,10 +19596,10 @@
         <v>160.345</v>
       </c>
       <c r="L475">
-        <v>371.744</v>
+        <v>382.675</v>
       </c>
       <c r="M475">
-        <v>777.712</v>
+        <v>788.668</v>
       </c>
     </row>
     <row r="476" spans="1:13">
@@ -19610,10 +19610,10 @@
         <v>172.894</v>
       </c>
       <c r="C476">
-        <v>384.588</v>
+        <v>395.519</v>
       </c>
       <c r="D476">
-        <v>737.092</v>
+        <v>748.047</v>
       </c>
       <c r="E476">
         <v>250.319</v>
@@ -19622,13 +19622,13 @@
         <v>17.777</v>
       </c>
       <c r="G476">
-        <v>11.794</v>
+        <v>11.818</v>
       </c>
       <c r="H476">
         <v>72.613</v>
       </c>
       <c r="I476">
-        <v>172.246</v>
+        <v>183.178</v>
       </c>
       <c r="J476">
         <v>39.447</v>
@@ -19637,10 +19637,10 @@
         <v>172.394</v>
       </c>
       <c r="L476">
-        <v>384.088</v>
+        <v>395.02</v>
       </c>
       <c r="M476">
-        <v>736.592</v>
+        <v>747.548</v>
       </c>
     </row>
     <row r="477" spans="1:13">
@@ -19651,10 +19651,10 @@
         <v>165.114</v>
       </c>
       <c r="C477">
-        <v>369.764</v>
+        <v>380.343</v>
       </c>
       <c r="D477">
-        <v>671.865</v>
+        <v>682.466</v>
       </c>
       <c r="E477">
         <v>207.705</v>
@@ -19663,13 +19663,13 @@
         <v>17.127</v>
       </c>
       <c r="G477">
-        <v>10.53</v>
+        <v>10.553</v>
       </c>
       <c r="H477">
         <v>66.739</v>
       </c>
       <c r="I477">
-        <v>166.92</v>
+        <v>177.499</v>
       </c>
       <c r="J477">
         <v>37.73</v>
@@ -19678,10 +19678,10 @@
         <v>158.328</v>
       </c>
       <c r="L477">
-        <v>362.978</v>
+        <v>373.556</v>
       </c>
       <c r="M477">
-        <v>665.079</v>
+        <v>675.68</v>
       </c>
     </row>
     <row r="478" spans="1:13">
@@ -19692,10 +19692,10 @@
         <v>174.491</v>
       </c>
       <c r="C478">
-        <v>379.85</v>
+        <v>390.782</v>
       </c>
       <c r="D478">
-        <v>701.702</v>
+        <v>712.653</v>
       </c>
       <c r="E478">
         <v>192.254</v>
@@ -19704,13 +19704,13 @@
         <v>17.836</v>
       </c>
       <c r="G478">
-        <v>9.496</v>
+        <v>9.517</v>
       </c>
       <c r="H478">
         <v>102.265</v>
       </c>
       <c r="I478">
-        <v>165.516</v>
+        <v>176.447</v>
       </c>
       <c r="J478">
         <v>39.843</v>
@@ -19719,10 +19719,10 @@
         <v>165.549</v>
       </c>
       <c r="L478">
-        <v>370.908</v>
+        <v>381.839</v>
       </c>
       <c r="M478">
-        <v>692.759</v>
+        <v>703.711</v>
       </c>
     </row>
     <row r="479" spans="1:13">
@@ -19733,10 +19733,10 @@
         <v>176.489</v>
       </c>
       <c r="C479">
-        <v>383.524</v>
+        <v>394.103</v>
       </c>
       <c r="D479">
-        <v>730.447</v>
+        <v>741.042</v>
       </c>
       <c r="E479">
         <v>200.932</v>
@@ -19745,13 +19745,13 @@
         <v>17.57</v>
       </c>
       <c r="G479">
-        <v>7.567</v>
+        <v>7.583</v>
       </c>
       <c r="H479">
         <v>120.853</v>
       </c>
       <c r="I479">
-        <v>166.684</v>
+        <v>177.263</v>
       </c>
       <c r="J479">
         <v>40.352</v>
@@ -19760,10 +19760,10 @@
         <v>165.573</v>
       </c>
       <c r="L479">
-        <v>372.609</v>
+        <v>383.188</v>
       </c>
       <c r="M479">
-        <v>719.531</v>
+        <v>730.127</v>
       </c>
     </row>
     <row r="480" spans="1:13">
@@ -19774,10 +19774,10 @@
         <v>184.737</v>
       </c>
       <c r="C480">
-        <v>402.438</v>
+        <v>413.369</v>
       </c>
       <c r="D480">
-        <v>762.175</v>
+        <v>773.122</v>
       </c>
       <c r="E480">
         <v>230.58</v>
@@ -19786,13 +19786,13 @@
         <v>18.261</v>
       </c>
       <c r="G480">
-        <v>7.365</v>
+        <v>7.38</v>
       </c>
       <c r="H480">
         <v>103.532</v>
       </c>
       <c r="I480">
-        <v>176.384</v>
+        <v>187.316</v>
       </c>
       <c r="J480">
         <v>41.317</v>
@@ -19801,10 +19801,10 @@
         <v>174.944</v>
       </c>
       <c r="L480">
-        <v>392.646</v>
+        <v>403.577</v>
       </c>
       <c r="M480">
-        <v>752.382</v>
+        <v>763.329</v>
       </c>
     </row>
     <row r="481" spans="1:13">
@@ -19815,10 +19815,10 @@
         <v>175.628</v>
       </c>
       <c r="C481">
-        <v>386.895</v>
+        <v>397.3</v>
       </c>
       <c r="D481">
-        <v>761.091</v>
+        <v>771.487</v>
       </c>
       <c r="E481">
         <v>219.888</v>
@@ -19827,13 +19827,13 @@
         <v>17.4</v>
       </c>
       <c r="G481">
-        <v>7.183</v>
+        <v>7.174</v>
       </c>
       <c r="H481">
         <v>129.726</v>
       </c>
       <c r="I481">
-        <v>172.869</v>
+        <v>183.275</v>
       </c>
       <c r="J481">
         <v>38.397</v>
@@ -19842,10 +19842,10 @@
         <v>154.454</v>
       </c>
       <c r="L481">
-        <v>365.721</v>
+        <v>376.126</v>
       </c>
       <c r="M481">
-        <v>739.917</v>
+        <v>750.313</v>
       </c>
     </row>
     <row r="482" spans="1:13">
@@ -19856,10 +19856,10 @@
         <v>162.715</v>
       </c>
       <c r="C482">
-        <v>361.443</v>
+        <v>371.177</v>
       </c>
       <c r="D482">
-        <v>684.07</v>
+        <v>693.794</v>
       </c>
       <c r="E482">
         <v>193.017</v>
@@ -19868,13 +19868,13 @@
         <v>16.387</v>
       </c>
       <c r="G482">
-        <v>8.052</v>
+        <v>8.042</v>
       </c>
       <c r="H482">
         <v>105.171</v>
       </c>
       <c r="I482">
-        <v>162.401</v>
+        <v>172.135</v>
       </c>
       <c r="J482">
         <v>36.328</v>
@@ -19883,10 +19883,10 @@
         <v>151.024</v>
       </c>
       <c r="L482">
-        <v>349.752</v>
+        <v>359.486</v>
       </c>
       <c r="M482">
-        <v>672.379</v>
+        <v>682.103</v>
       </c>
     </row>
     <row r="483" spans="1:13">
@@ -19897,10 +19897,10 @@
         <v>170.029</v>
       </c>
       <c r="C483">
-        <v>375.436</v>
+        <v>385.841</v>
       </c>
       <c r="D483">
-        <v>784.587</v>
+        <v>794.978</v>
       </c>
       <c r="E483">
         <v>246.546</v>
@@ -19909,13 +19909,13 @@
         <v>17.608</v>
       </c>
       <c r="G483">
-        <v>11.522</v>
+        <v>11.508</v>
       </c>
       <c r="H483">
         <v>133.476</v>
       </c>
       <c r="I483">
-        <v>165.529</v>
+        <v>175.935</v>
       </c>
       <c r="J483">
         <v>39.878</v>
@@ -19924,10 +19924,10 @@
         <v>162.971</v>
       </c>
       <c r="L483">
-        <v>368.378</v>
+        <v>378.783</v>
       </c>
       <c r="M483">
-        <v>777.529</v>
+        <v>787.92</v>
       </c>
     </row>
     <row r="484" spans="1:13">
@@ -19938,10 +19938,10 @@
         <v>163.07</v>
       </c>
       <c r="C484">
-        <v>356.963</v>
+        <v>367.033</v>
       </c>
       <c r="D484">
-        <v>758.509</v>
+        <v>768.564</v>
       </c>
       <c r="E484">
         <v>250.215</v>
@@ -19950,13 +19950,13 @@
         <v>17.084</v>
       </c>
       <c r="G484">
-        <v>13.306</v>
+        <v>13.291</v>
       </c>
       <c r="H484">
         <v>120.941</v>
       </c>
       <c r="I484">
-        <v>156.66</v>
+        <v>166.73</v>
       </c>
       <c r="J484">
         <v>37.232</v>
@@ -19965,10 +19965,10 @@
         <v>159.348</v>
       </c>
       <c r="L484">
-        <v>353.241</v>
+        <v>363.31</v>
       </c>
       <c r="M484">
-        <v>754.787</v>
+        <v>764.841</v>
       </c>
     </row>
     <row r="485" spans="1:13">
@@ -19979,10 +19979,10 @@
         <v>171.377</v>
       </c>
       <c r="C485">
-        <v>374.887</v>
+        <v>385.292</v>
       </c>
       <c r="D485">
-        <v>800.315</v>
+        <v>810.704</v>
       </c>
       <c r="E485">
         <v>272.562</v>
@@ -19991,13 +19991,13 @@
         <v>17.787</v>
       </c>
       <c r="G485">
-        <v>15.744</v>
+        <v>15.727</v>
       </c>
       <c r="H485">
         <v>119.336</v>
       </c>
       <c r="I485">
-        <v>165.312</v>
+        <v>175.717</v>
       </c>
       <c r="J485">
         <v>38.198</v>
@@ -20006,10 +20006,10 @@
         <v>168.682</v>
       </c>
       <c r="L485">
-        <v>372.192</v>
+        <v>382.597</v>
       </c>
       <c r="M485">
-        <v>797.621</v>
+        <v>808.009</v>
       </c>
     </row>
     <row r="486" spans="1:13">
@@ -20020,10 +20020,10 @@
         <v>163.931</v>
       </c>
       <c r="C486">
-        <v>365.769</v>
+        <v>375.839</v>
       </c>
       <c r="D486">
-        <v>767.203</v>
+        <v>777.256</v>
       </c>
       <c r="E486">
         <v>253.685</v>
@@ -20032,13 +20032,13 @@
         <v>17.361</v>
       </c>
       <c r="G486">
-        <v>16.459</v>
+        <v>16.442</v>
       </c>
       <c r="H486">
         <v>113.928</v>
       </c>
       <c r="I486">
-        <v>164.832</v>
+        <v>174.902</v>
       </c>
       <c r="J486">
         <v>37.006</v>
@@ -20047,10 +20047,10 @@
         <v>164.099</v>
       </c>
       <c r="L486">
-        <v>365.938</v>
+        <v>376.007</v>
       </c>
       <c r="M486">
-        <v>767.371</v>
+        <v>777.424</v>
       </c>
     </row>
     <row r="487" spans="1:13">
@@ -20061,10 +20061,10 @@
         <v>155.945</v>
       </c>
       <c r="C487">
-        <v>367.103</v>
+        <v>377.508</v>
       </c>
       <c r="D487">
-        <v>737.947</v>
+        <v>748.335</v>
       </c>
       <c r="E487">
         <v>252.091</v>
@@ -20073,13 +20073,13 @@
         <v>17.946</v>
       </c>
       <c r="G487">
-        <v>16.862</v>
+        <v>16.844</v>
       </c>
       <c r="H487">
         <v>83.946</v>
       </c>
       <c r="I487">
-        <v>171.852</v>
+        <v>182.257</v>
       </c>
       <c r="J487">
         <v>39.306</v>
@@ -20088,10 +20088,10 @@
         <v>156.836</v>
       </c>
       <c r="L487">
-        <v>367.993</v>
+        <v>378.399</v>
       </c>
       <c r="M487">
-        <v>738.838</v>
+        <v>749.225</v>
       </c>
     </row>
     <row r="488" spans="1:13">
@@ -20102,10 +20102,10 @@
         <v>161.078</v>
       </c>
       <c r="C488">
-        <v>373.614</v>
+        <v>384.019</v>
       </c>
       <c r="D488">
-        <v>707.461</v>
+        <v>717.848</v>
       </c>
       <c r="E488">
         <v>219.192</v>
@@ -20114,13 +20114,13 @@
         <v>17.786</v>
       </c>
       <c r="G488">
-        <v>16.279</v>
+        <v>16.261</v>
       </c>
       <c r="H488">
         <v>80.59</v>
       </c>
       <c r="I488">
-        <v>173.259</v>
+        <v>183.665</v>
       </c>
       <c r="J488">
         <v>39.276</v>
@@ -20129,10 +20129,10 @@
         <v>166.443</v>
       </c>
       <c r="L488">
-        <v>378.979</v>
+        <v>389.384</v>
       </c>
       <c r="M488">
-        <v>712.826</v>
+        <v>723.214</v>
       </c>
     </row>
     <row r="489" spans="1:13">
@@ -20143,10 +20143,10 @@
         <v>150</v>
       </c>
       <c r="C489">
-        <v>354.912</v>
+        <v>364.982</v>
       </c>
       <c r="D489">
-        <v>638.85</v>
+        <v>648.904</v>
       </c>
       <c r="E489">
         <v>167.517</v>
@@ -20155,13 +20155,13 @@
         <v>17.576</v>
       </c>
       <c r="G489">
-        <v>15.202</v>
+        <v>15.186</v>
       </c>
       <c r="H489">
         <v>83.642</v>
       </c>
       <c r="I489">
-        <v>167.65</v>
+        <v>177.719</v>
       </c>
       <c r="J489">
         <v>37.263</v>
@@ -20170,10 +20170,10 @@
         <v>148.908</v>
       </c>
       <c r="L489">
-        <v>353.821</v>
+        <v>363.891</v>
       </c>
       <c r="M489">
-        <v>637.759</v>
+        <v>647.812</v>
       </c>
     </row>
     <row r="490" spans="1:13">
@@ -20184,10 +20184,10 @@
         <v>152.466</v>
       </c>
       <c r="C490">
-        <v>361.533</v>
+        <v>371.939</v>
       </c>
       <c r="D490">
-        <v>670.808</v>
+        <v>681.199</v>
       </c>
       <c r="E490">
         <v>157.02</v>
@@ -20196,13 +20196,13 @@
         <v>18.027</v>
       </c>
       <c r="G490">
-        <v>13.988</v>
+        <v>13.973</v>
       </c>
       <c r="H490">
         <v>120.241</v>
       </c>
       <c r="I490">
-        <v>168.302</v>
+        <v>178.707</v>
       </c>
       <c r="J490">
         <v>40.766</v>
@@ -20211,10 +20211,10 @@
         <v>158.241</v>
       </c>
       <c r="L490">
-        <v>367.309</v>
+        <v>377.714</v>
       </c>
       <c r="M490">
-        <v>676.584</v>
+        <v>686.974</v>
       </c>
     </row>
     <row r="491" spans="1:13">
@@ -20225,10 +20225,10 @@
         <v>148.782</v>
       </c>
       <c r="C491">
-        <v>356.619</v>
+        <v>366.689</v>
       </c>
       <c r="D491">
-        <v>675.159</v>
+        <v>685.216</v>
       </c>
       <c r="E491">
         <v>178.257</v>
@@ -20237,13 +20237,13 @@
         <v>18.023</v>
       </c>
       <c r="G491">
-        <v>11.411</v>
+        <v>11.399</v>
       </c>
       <c r="H491">
         <v>110.848</v>
       </c>
       <c r="I491">
-        <v>167.166</v>
+        <v>177.236</v>
       </c>
       <c r="J491">
         <v>40.671</v>
@@ -20252,10 +20252,10 @@
         <v>149.268</v>
       </c>
       <c r="L491">
-        <v>357.106</v>
+        <v>367.175</v>
       </c>
       <c r="M491">
-        <v>675.645</v>
+        <v>685.703</v>
       </c>
     </row>
     <row r="492" spans="1:13">
@@ -20266,10 +20266,10 @@
         <v>153.866</v>
       </c>
       <c r="C492">
-        <v>370.582</v>
+        <v>380.988</v>
       </c>
       <c r="D492">
-        <v>757.132</v>
+        <v>767.526</v>
       </c>
       <c r="E492">
         <v>218.713</v>
@@ -20278,13 +20278,13 @@
         <v>18.608</v>
       </c>
       <c r="G492">
-        <v>11.014</v>
+        <v>11.002</v>
       </c>
       <c r="H492">
         <v>138.215</v>
       </c>
       <c r="I492">
-        <v>174.433</v>
+        <v>184.839</v>
       </c>
       <c r="J492">
         <v>42.283</v>
@@ -20293,10 +20293,10 @@
         <v>151.961</v>
       </c>
       <c r="L492">
-        <v>368.677</v>
+        <v>379.082</v>
       </c>
       <c r="M492">
-        <v>755.226</v>
+        <v>765.62</v>
       </c>
     </row>
     <row r="493" spans="1:13">
@@ -20307,10 +20307,10 @@
         <v>150.116</v>
       </c>
       <c r="C493">
-        <v>376.877</v>
+        <v>391.914</v>
       </c>
       <c r="D493">
-        <v>783.44</v>
+        <v>798.45</v>
       </c>
       <c r="E493">
         <v>236.889</v>
@@ -20319,13 +20319,13 @@
         <v>18.578</v>
       </c>
       <c r="G493">
-        <v>10.477</v>
+        <v>10.449</v>
       </c>
       <c r="H493">
         <v>140.62</v>
       </c>
       <c r="I493">
-        <v>185.329</v>
+        <v>200.367</v>
       </c>
       <c r="J493">
         <v>41.432</v>
@@ -20334,10 +20334,10 @@
         <v>149.124</v>
       </c>
       <c r="L493">
-        <v>375.885</v>
+        <v>390.922</v>
       </c>
       <c r="M493">
-        <v>782.448</v>
+        <v>797.458</v>
       </c>
     </row>
     <row r="494" spans="1:13">
@@ -20348,10 +20348,10 @@
         <v>137.251</v>
       </c>
       <c r="C494">
-        <v>340.831</v>
+        <v>354.413</v>
       </c>
       <c r="D494">
-        <v>698.84</v>
+        <v>712.392</v>
       </c>
       <c r="E494">
         <v>194.813</v>
@@ -20360,13 +20360,13 @@
         <v>16.666</v>
       </c>
       <c r="G494">
-        <v>12.235</v>
+        <v>12.205</v>
       </c>
       <c r="H494">
         <v>134.295</v>
       </c>
       <c r="I494">
-        <v>166.588</v>
+        <v>180.17</v>
       </c>
       <c r="J494">
         <v>36.992</v>
@@ -20375,10 +20375,10 @@
         <v>139.257</v>
       </c>
       <c r="L494">
-        <v>342.837</v>
+        <v>356.42</v>
       </c>
       <c r="M494">
-        <v>700.846</v>
+        <v>714.398</v>
       </c>
     </row>
     <row r="495" spans="1:13">
@@ -20389,10 +20389,10 @@
         <v>159.161</v>
       </c>
       <c r="C495">
-        <v>382.909</v>
+        <v>397.947</v>
       </c>
       <c r="D495">
-        <v>764.775</v>
+        <v>779.771</v>
       </c>
       <c r="E495">
         <v>195.918</v>
@@ -20401,13 +20401,13 @@
         <v>18.543</v>
       </c>
       <c r="G495">
-        <v>17.08</v>
+        <v>17.039</v>
       </c>
       <c r="H495">
         <v>150.325</v>
       </c>
       <c r="I495">
-        <v>181.589</v>
+        <v>196.627</v>
       </c>
       <c r="J495">
         <v>42.16</v>
@@ -20416,10 +20416,10 @@
         <v>160.999</v>
       </c>
       <c r="L495">
-        <v>384.748</v>
+        <v>399.786</v>
       </c>
       <c r="M495">
-        <v>766.613</v>
+        <v>781.61</v>
       </c>
     </row>
     <row r="496" spans="1:13">
@@ -20430,10 +20430,10 @@
         <v>159.769</v>
       </c>
       <c r="C496">
-        <v>372.033</v>
+        <v>386.585</v>
       </c>
       <c r="D496">
-        <v>814.273</v>
+        <v>828.781</v>
       </c>
       <c r="E496">
         <v>239.451</v>
@@ -20442,13 +20442,13 @@
         <v>17.376</v>
       </c>
       <c r="G496">
-        <v>18.672</v>
+        <v>18.627</v>
       </c>
       <c r="H496">
         <v>166.741</v>
       </c>
       <c r="I496">
-        <v>171.494</v>
+        <v>186.046</v>
       </c>
       <c r="J496">
         <v>40.77</v>
@@ -20457,10 +20457,10 @@
         <v>161.766</v>
       </c>
       <c r="L496">
-        <v>374.03</v>
+        <v>388.583</v>
       </c>
       <c r="M496">
-        <v>816.271</v>
+        <v>830.778</v>
       </c>
     </row>
     <row r="497" spans="1:13">
@@ -20471,10 +20471,10 @@
         <v>169.453</v>
       </c>
       <c r="C497">
-        <v>389.714</v>
+        <v>404.752</v>
       </c>
       <c r="D497">
-        <v>854.732</v>
+        <v>869.72</v>
       </c>
       <c r="E497">
         <v>271.442</v>
@@ -20483,13 +20483,13 @@
         <v>17.87</v>
       </c>
       <c r="G497">
-        <v>20.772</v>
+        <v>20.722</v>
       </c>
       <c r="H497">
         <v>154.933</v>
       </c>
       <c r="I497">
-        <v>178.791</v>
+        <v>193.829</v>
       </c>
       <c r="J497">
         <v>41.47</v>
@@ -20498,10 +20498,10 @@
         <v>169.897</v>
       </c>
       <c r="L497">
-        <v>390.158</v>
+        <v>405.196</v>
       </c>
       <c r="M497">
-        <v>855.176</v>
+        <v>870.164</v>
       </c>
     </row>
     <row r="498" spans="1:13">
@@ -20512,10 +20512,10 @@
         <v>167.146</v>
       </c>
       <c r="C498">
-        <v>386.711</v>
+        <v>401.263</v>
       </c>
       <c r="D498">
-        <v>818.588</v>
+        <v>833.09</v>
       </c>
       <c r="E498">
         <v>261.271</v>
@@ -20524,13 +20524,13 @@
         <v>17.415</v>
       </c>
       <c r="G498">
-        <v>22.02</v>
+        <v>21.97</v>
       </c>
       <c r="H498">
         <v>131.171</v>
       </c>
       <c r="I498">
-        <v>179.128</v>
+        <v>193.681</v>
       </c>
       <c r="J498">
         <v>40.437</v>
@@ -20539,10 +20539,10 @@
         <v>172.553</v>
       </c>
       <c r="L498">
-        <v>392.117</v>
+        <v>406.67</v>
       </c>
       <c r="M498">
-        <v>823.995</v>
+        <v>838.497</v>
       </c>
     </row>
     <row r="499" spans="1:13">
@@ -20553,10 +20553,10 @@
         <v>170.283</v>
       </c>
       <c r="C499">
-        <v>402.698</v>
+        <v>417.736</v>
       </c>
       <c r="D499">
-        <v>809.03</v>
+        <v>824.015</v>
       </c>
       <c r="E499">
         <v>260.036</v>
@@ -20565,13 +20565,13 @@
         <v>18.148</v>
       </c>
       <c r="G499">
-        <v>22.304</v>
+        <v>22.251</v>
       </c>
       <c r="H499">
         <v>105.844</v>
       </c>
       <c r="I499">
-        <v>190.452</v>
+        <v>205.49</v>
       </c>
       <c r="J499">
         <v>41.963</v>
@@ -20580,10 +20580,10 @@
         <v>170.614</v>
       </c>
       <c r="L499">
-        <v>403.029</v>
+        <v>418.067</v>
       </c>
       <c r="M499">
-        <v>809.361</v>
+        <v>824.346</v>
       </c>
     </row>
     <row r="500" spans="1:13">
@@ -20594,10 +20594,10 @@
         <v>166.758</v>
       </c>
       <c r="C500">
-        <v>396.999</v>
+        <v>412.037</v>
       </c>
       <c r="D500">
-        <v>736.584</v>
+        <v>751.569</v>
       </c>
       <c r="E500">
         <v>206.403</v>
@@ -20606,13 +20606,13 @@
         <v>18.011</v>
       </c>
       <c r="G500">
-        <v>23.254</v>
+        <v>23.201</v>
       </c>
       <c r="H500">
         <v>91.917</v>
       </c>
       <c r="I500">
-        <v>188.043</v>
+        <v>203.08</v>
       </c>
       <c r="J500">
         <v>42.198</v>
@@ -20621,10 +20621,10 @@
         <v>170.073</v>
       </c>
       <c r="L500">
-        <v>400.313</v>
+        <v>415.351</v>
       </c>
       <c r="M500">
-        <v>739.898</v>
+        <v>754.883</v>
       </c>
     </row>
     <row r="501" spans="1:13">
@@ -20635,10 +20635,10 @@
         <v>162.24</v>
       </c>
       <c r="C501">
-        <v>378.787</v>
+        <v>393.34</v>
       </c>
       <c r="D501">
-        <v>691.658</v>
+        <v>706.163</v>
       </c>
       <c r="E501">
         <v>161.826</v>
@@ -20647,13 +20647,13 @@
         <v>17.616</v>
       </c>
       <c r="G501">
-        <v>22.046</v>
+        <v>21.998</v>
       </c>
       <c r="H501">
         <v>111.382</v>
       </c>
       <c r="I501">
-        <v>176.634</v>
+        <v>191.186</v>
       </c>
       <c r="J501">
         <v>39.914</v>
@@ -20662,10 +20662,10 @@
         <v>169.992</v>
       </c>
       <c r="L501">
-        <v>386.54</v>
+        <v>401.093</v>
       </c>
       <c r="M501">
-        <v>699.41</v>
+        <v>713.915</v>
       </c>
     </row>
     <row r="502" spans="1:13">
@@ -20676,10 +20676,10 @@
         <v>177.495</v>
       </c>
       <c r="C502">
-        <v>400.303</v>
+        <v>415.341</v>
       </c>
       <c r="D502">
-        <v>734.153</v>
+        <v>749.147</v>
       </c>
       <c r="E502">
         <v>164.092</v>
@@ -20688,13 +20688,13 @@
         <v>18.402</v>
       </c>
       <c r="G502">
-        <v>21.264</v>
+        <v>21.221</v>
       </c>
       <c r="H502">
         <v>130.092</v>
       </c>
       <c r="I502">
-        <v>180.831</v>
+        <v>195.869</v>
       </c>
       <c r="J502">
         <v>41.976</v>
@@ -20703,10 +20703,10 @@
         <v>182.746</v>
       </c>
       <c r="L502">
-        <v>405.553</v>
+        <v>420.591</v>
       </c>
       <c r="M502">
-        <v>739.403</v>
+        <v>754.397</v>
       </c>
     </row>
     <row r="503" spans="1:13">
@@ -20717,10 +20717,10 @@
         <v>176.018</v>
       </c>
       <c r="C503">
-        <v>399.495</v>
+        <v>414.047</v>
       </c>
       <c r="D503">
-        <v>753.467</v>
+        <v>767.984</v>
       </c>
       <c r="E503">
         <v>168.655</v>
@@ -20729,13 +20729,13 @@
         <v>16.959</v>
       </c>
       <c r="G503">
-        <v>17.579</v>
+        <v>17.543</v>
       </c>
       <c r="H503">
         <v>150.779</v>
       </c>
       <c r="I503">
-        <v>181.209</v>
+        <v>195.761</v>
       </c>
       <c r="J503">
         <v>42.268</v>
@@ -20744,10 +20744,10 @@
         <v>174.953</v>
       </c>
       <c r="L503">
-        <v>398.429</v>
+        <v>412.982</v>
       </c>
       <c r="M503">
-        <v>752.401</v>
+        <v>766.918</v>
       </c>
     </row>
     <row r="504" spans="1:13">
@@ -20758,10 +20758,10 @@
         <v>185.25</v>
       </c>
       <c r="C504">
-        <v>419.564</v>
+        <v>434.602</v>
       </c>
       <c r="D504">
-        <v>790.162</v>
+        <v>805.166</v>
       </c>
       <c r="E504">
         <v>201.585</v>
@@ -20770,13 +20770,13 @@
         <v>18.423</v>
       </c>
       <c r="G504">
-        <v>17.331</v>
+        <v>17.297</v>
       </c>
       <c r="H504">
         <v>133.26</v>
       </c>
       <c r="I504">
-        <v>189.457</v>
+        <v>204.495</v>
       </c>
       <c r="J504">
         <v>44.857</v>
@@ -20785,10 +20785,10 @@
         <v>185.201</v>
       </c>
       <c r="L504">
-        <v>419.515</v>
+        <v>434.552</v>
       </c>
       <c r="M504">
-        <v>790.113</v>
+        <v>805.117</v>
       </c>
     </row>
     <row r="505" spans="1:13">
@@ -20799,10 +20799,10 @@
         <v>169.589</v>
       </c>
       <c r="C505">
-        <v>405.457</v>
+        <v>419.691</v>
       </c>
       <c r="D505">
-        <v>816.316</v>
+        <v>830.559</v>
       </c>
       <c r="E505">
         <v>205.737</v>
@@ -20811,13 +20811,13 @@
         <v>18.279</v>
       </c>
       <c r="G505">
-        <v>16.507</v>
+        <v>16.515</v>
       </c>
       <c r="H505">
         <v>170.336</v>
       </c>
       <c r="I505">
-        <v>190.944</v>
+        <v>205.178</v>
       </c>
       <c r="J505">
         <v>44.923</v>
@@ -20826,10 +20826,10 @@
         <v>162.608</v>
       </c>
       <c r="L505">
-        <v>398.475</v>
+        <v>412.71</v>
       </c>
       <c r="M505">
-        <v>809.335</v>
+        <v>823.577</v>
       </c>
     </row>
     <row r="506" spans="1:13">
@@ -20840,10 +20840,10 @@
         <v>153.382</v>
       </c>
       <c r="C506">
-        <v>367.761</v>
+        <v>380.618</v>
       </c>
       <c r="D506">
-        <v>700.664</v>
+        <v>713.529</v>
       </c>
       <c r="E506">
         <v>165.437</v>
@@ -20852,13 +20852,13 @@
         <v>16.342</v>
       </c>
       <c r="G506">
-        <v>17.902</v>
+        <v>17.91</v>
       </c>
       <c r="H506">
         <v>133.222</v>
       </c>
       <c r="I506">
-        <v>173.552</v>
+        <v>186.409</v>
       </c>
       <c r="J506">
         <v>40.827</v>
@@ -20867,10 +20867,10 @@
         <v>150.243</v>
       </c>
       <c r="L506">
-        <v>364.622</v>
+        <v>377.479</v>
       </c>
       <c r="M506">
-        <v>697.525</v>
+        <v>710.39</v>
       </c>
     </row>
     <row r="507" spans="1:13">
@@ -20881,10 +20881,10 @@
         <v>172.687</v>
       </c>
       <c r="C507">
-        <v>407.455</v>
+        <v>421.69</v>
       </c>
       <c r="D507">
-        <v>851.059</v>
+        <v>865.305</v>
       </c>
       <c r="E507">
         <v>230.685</v>
@@ -20893,13 +20893,13 @@
         <v>18.114</v>
       </c>
       <c r="G507">
-        <v>26.136</v>
+        <v>26.148</v>
       </c>
       <c r="H507">
         <v>168.668</v>
       </c>
       <c r="I507">
-        <v>190.236</v>
+        <v>204.47</v>
       </c>
       <c r="J507">
         <v>44.532</v>
@@ -20908,10 +20908,10 @@
         <v>167.349</v>
       </c>
       <c r="L507">
-        <v>402.117</v>
+        <v>416.351</v>
       </c>
       <c r="M507">
-        <v>845.721</v>
+        <v>859.967</v>
       </c>
     </row>
     <row r="508" spans="1:13">
@@ -20922,10 +20922,10 @@
         <v>169.65</v>
       </c>
       <c r="C508">
-        <v>393.377</v>
+        <v>407.152</v>
       </c>
       <c r="D508">
-        <v>859.219</v>
+        <v>873.007</v>
       </c>
       <c r="E508">
         <v>241.934</v>
@@ -20934,13 +20934,13 @@
         <v>17.711</v>
       </c>
       <c r="G508">
-        <v>28.974</v>
+        <v>28.987</v>
       </c>
       <c r="H508">
         <v>177.224</v>
       </c>
       <c r="I508">
-        <v>179.828</v>
+        <v>193.603</v>
       </c>
       <c r="J508">
         <v>43.899</v>
@@ -20949,10 +20949,10 @@
         <v>167.44</v>
       </c>
       <c r="L508">
-        <v>391.167</v>
+        <v>404.942</v>
       </c>
       <c r="M508">
-        <v>857.009</v>
+        <v>870.797</v>
       </c>
     </row>
     <row r="509" spans="1:13">
@@ -20963,10 +20963,10 @@
         <v>177.941</v>
       </c>
       <c r="C509">
-        <v>403.727</v>
+        <v>417.962</v>
       </c>
       <c r="D509">
-        <v>855.618</v>
+        <v>869.866</v>
       </c>
       <c r="E509">
         <v>252.432</v>
@@ -20975,13 +20975,13 @@
         <v>18.064</v>
       </c>
       <c r="G509">
-        <v>33.025</v>
+        <v>33.04</v>
       </c>
       <c r="H509">
         <v>148.369</v>
       </c>
       <c r="I509">
-        <v>182.659</v>
+        <v>196.893</v>
       </c>
       <c r="J509">
         <v>43.127</v>
@@ -20990,10 +20990,10 @@
         <v>176.162</v>
       </c>
       <c r="L509">
-        <v>401.949</v>
+        <v>416.183</v>
       </c>
       <c r="M509">
-        <v>853.839</v>
+        <v>868.088</v>
       </c>
     </row>
     <row r="510" spans="1:13">
@@ -21004,10 +21004,10 @@
         <v>177.292</v>
       </c>
       <c r="C510">
-        <v>406.948</v>
+        <v>420.723</v>
       </c>
       <c r="D510">
-        <v>854.343</v>
+        <v>868.132</v>
       </c>
       <c r="E510">
         <v>244.824</v>
@@ -21016,13 +21016,13 @@
         <v>17.519</v>
       </c>
       <c r="G510">
-        <v>34.805</v>
+        <v>34.82</v>
       </c>
       <c r="H510">
         <v>150.247</v>
       </c>
       <c r="I510">
-        <v>187.243</v>
+        <v>201.018</v>
       </c>
       <c r="J510">
         <v>42.412</v>
@@ -21031,10 +21031,10 @@
         <v>173.169</v>
       </c>
       <c r="L510">
-        <v>402.824</v>
+        <v>416.599</v>
       </c>
       <c r="M510">
-        <v>850.22</v>
+        <v>864.009</v>
       </c>
     </row>
     <row r="511" spans="1:13">
@@ -21045,10 +21045,10 @@
         <v>183.262</v>
       </c>
       <c r="C511">
-        <v>421.422</v>
+        <v>435.656</v>
       </c>
       <c r="D511">
-        <v>821.14</v>
+        <v>835.389</v>
       </c>
       <c r="E511">
         <v>231.639</v>
@@ -21057,13 +21057,13 @@
         <v>17.942</v>
       </c>
       <c r="G511">
-        <v>34.235</v>
+        <v>34.25</v>
       </c>
       <c r="H511">
         <v>115.902</v>
       </c>
       <c r="I511">
-        <v>193.166</v>
+        <v>207.4</v>
       </c>
       <c r="J511">
         <v>44.994</v>
@@ -21072,10 +21072,10 @@
         <v>179.716</v>
       </c>
       <c r="L511">
-        <v>417.876</v>
+        <v>432.11</v>
       </c>
       <c r="M511">
-        <v>817.594</v>
+        <v>831.844</v>
       </c>
     </row>
     <row r="512" spans="1:13">
@@ -21086,10 +21086,10 @@
         <v>179.302</v>
       </c>
       <c r="C512">
-        <v>416.676</v>
+        <v>430.911</v>
       </c>
       <c r="D512">
-        <v>754.766</v>
+        <v>769.015</v>
       </c>
       <c r="E512">
         <v>188.367</v>
@@ -21098,13 +21098,13 @@
         <v>18.034</v>
       </c>
       <c r="G512">
-        <v>34.967</v>
+        <v>34.982</v>
       </c>
       <c r="H512">
         <v>96.722</v>
       </c>
       <c r="I512">
-        <v>194.421</v>
+        <v>208.655</v>
       </c>
       <c r="J512">
         <v>42.954</v>
@@ -21113,10 +21113,10 @@
         <v>182.02</v>
       </c>
       <c r="L512">
-        <v>419.394</v>
+        <v>433.629</v>
       </c>
       <c r="M512">
-        <v>757.484</v>
+        <v>771.733</v>
       </c>
     </row>
     <row r="513" spans="1:13">
@@ -21127,10 +21127,10 @@
         <v>173.21</v>
       </c>
       <c r="C513">
-        <v>396.605</v>
+        <v>410.38</v>
       </c>
       <c r="D513">
-        <v>709.805</v>
+        <v>723.593</v>
       </c>
       <c r="E513">
         <v>152.867</v>
@@ -21139,13 +21139,13 @@
         <v>17.654</v>
       </c>
       <c r="G513">
-        <v>33.126</v>
+        <v>33.14</v>
       </c>
       <c r="H513">
         <v>109.553</v>
       </c>
       <c r="I513">
-        <v>182.76</v>
+        <v>196.535</v>
       </c>
       <c r="J513">
         <v>40.635</v>
@@ -21154,10 +21154,10 @@
         <v>171.97</v>
       </c>
       <c r="L513">
-        <v>395.365</v>
+        <v>409.14</v>
       </c>
       <c r="M513">
-        <v>708.564</v>
+        <v>722.353</v>
       </c>
     </row>
     <row r="514" spans="1:13">
@@ -21168,10 +21168,10 @@
         <v>179.049</v>
       </c>
       <c r="C514">
-        <v>408.482</v>
+        <v>422.717</v>
       </c>
       <c r="D514">
-        <v>758.628</v>
+        <v>772.875</v>
       </c>
       <c r="E514">
         <v>163.184</v>
@@ -21180,13 +21180,13 @@
         <v>18.185</v>
       </c>
       <c r="G514">
-        <v>30.806</v>
+        <v>30.819</v>
       </c>
       <c r="H514">
         <v>137.97</v>
       </c>
       <c r="I514">
-        <v>186.967</v>
+        <v>201.202</v>
       </c>
       <c r="J514">
         <v>42.467</v>
@@ -21195,10 +21195,10 @@
         <v>179.997</v>
       </c>
       <c r="L514">
-        <v>409.431</v>
+        <v>423.665</v>
       </c>
       <c r="M514">
-        <v>759.577</v>
+        <v>773.824</v>
       </c>
     </row>
     <row r="515" spans="1:13">
@@ -21209,10 +21209,10 @@
         <v>176.777</v>
       </c>
       <c r="C515">
-        <v>403.886</v>
+        <v>417.662</v>
       </c>
       <c r="D515">
-        <v>803.612</v>
+        <v>817.397</v>
       </c>
       <c r="E515">
         <v>177.123</v>
@@ -21221,13 +21221,13 @@
         <v>18.176</v>
       </c>
       <c r="G515">
-        <v>25.002</v>
+        <v>25.012</v>
       </c>
       <c r="H515">
         <v>179.424</v>
       </c>
       <c r="I515">
-        <v>185.561</v>
+        <v>199.336</v>
       </c>
       <c r="J515">
         <v>41.549</v>
@@ -21236,10 +21236,10 @@
         <v>173.166</v>
       </c>
       <c r="L515">
-        <v>400.276</v>
+        <v>414.051</v>
       </c>
       <c r="M515">
-        <v>800.001</v>
+        <v>813.787</v>
       </c>
     </row>
     <row r="516" spans="1:13">
@@ -21250,10 +21250,10 @@
         <v>191.27</v>
       </c>
       <c r="C516">
-        <v>429.398</v>
+        <v>443.632</v>
       </c>
       <c r="D516">
-        <v>821.425</v>
+        <v>835.669</v>
       </c>
       <c r="E516">
         <v>212.347</v>
@@ -21262,13 +21262,13 @@
         <v>18.469</v>
       </c>
       <c r="G516">
-        <v>21.307</v>
+        <v>21.317</v>
       </c>
       <c r="H516">
         <v>139.904</v>
       </c>
       <c r="I516">
-        <v>194.57</v>
+        <v>208.804</v>
       </c>
       <c r="J516">
         <v>43.558</v>
@@ -21277,10 +21277,10 @@
         <v>183.006</v>
       </c>
       <c r="L516">
-        <v>421.133</v>
+        <v>435.367</v>
       </c>
       <c r="M516">
-        <v>813.16</v>
+        <v>827.405</v>
       </c>
     </row>
     <row r="517" spans="1:13">
@@ -21291,10 +21291,10 @@
         <v>177.934</v>
       </c>
       <c r="C517">
-        <v>402.848</v>
+        <v>416.755</v>
       </c>
       <c r="D517">
-        <v>808.209</v>
+        <v>822.076</v>
       </c>
       <c r="E517">
         <v>224.946</v>
@@ -21303,13 +21303,13 @@
         <v>18.085</v>
       </c>
       <c r="G517">
-        <v>21.034</v>
+        <v>20.995</v>
       </c>
       <c r="H517">
         <v>141.296</v>
       </c>
       <c r="I517">
-        <v>181.77</v>
+        <v>195.676</v>
       </c>
       <c r="J517">
         <v>43.145</v>
@@ -21318,10 +21318,10 @@
         <v>163.144</v>
       </c>
       <c r="L517">
-        <v>388.059</v>
+        <v>401.965</v>
       </c>
       <c r="M517">
-        <v>793.419</v>
+        <v>807.287</v>
       </c>
     </row>
     <row r="518" spans="1:13">
@@ -21332,10 +21332,10 @@
         <v>161.849</v>
       </c>
       <c r="C518">
-        <v>364.362</v>
+        <v>376.923</v>
       </c>
       <c r="D518">
-        <v>752.76</v>
+        <v>765.278</v>
       </c>
       <c r="E518">
         <v>207.684</v>
@@ -21344,13 +21344,13 @@
         <v>16.614</v>
       </c>
       <c r="G518">
-        <v>25.046</v>
+        <v>25.004</v>
       </c>
       <c r="H518">
         <v>139.054</v>
       </c>
       <c r="I518">
-        <v>164.077</v>
+        <v>176.638</v>
       </c>
       <c r="J518">
         <v>38.436</v>
@@ -21359,10 +21359,10 @@
         <v>157.552</v>
       </c>
       <c r="L518">
-        <v>360.065</v>
+        <v>372.626</v>
       </c>
       <c r="M518">
-        <v>748.463</v>
+        <v>760.981</v>
       </c>
     </row>
     <row r="519" spans="1:13">
@@ -21373,10 +21373,10 @@
         <v>179.665</v>
       </c>
       <c r="C519">
-        <v>394.67</v>
+        <v>408.576</v>
       </c>
       <c r="D519">
-        <v>816.886</v>
+        <v>830.733</v>
       </c>
       <c r="E519">
         <v>226.274</v>
@@ -21385,13 +21385,13 @@
         <v>18.384</v>
       </c>
       <c r="G519">
-        <v>34.904</v>
+        <v>34.845</v>
       </c>
       <c r="H519">
         <v>142.655</v>
       </c>
       <c r="I519">
-        <v>172.174</v>
+        <v>186.081</v>
       </c>
       <c r="J519">
         <v>42.831</v>
@@ -21400,10 +21400,10 @@
         <v>175.549</v>
       </c>
       <c r="L519">
-        <v>390.554</v>
+        <v>404.461</v>
       </c>
       <c r="M519">
-        <v>812.77</v>
+        <v>826.618</v>
       </c>
     </row>
     <row r="520" spans="1:13">
@@ -21414,10 +21414,10 @@
         <v>172.115</v>
       </c>
       <c r="C520">
-        <v>381.474</v>
+        <v>394.932</v>
       </c>
       <c r="D520">
-        <v>814.012</v>
+        <v>827.405</v>
       </c>
       <c r="E520">
         <v>209.407</v>
@@ -21426,13 +21426,13 @@
         <v>17.077</v>
       </c>
       <c r="G520">
-        <v>39.551</v>
+        <v>39.485</v>
       </c>
       <c r="H520">
         <v>166.504</v>
       </c>
       <c r="I520">
-        <v>167.706</v>
+        <v>181.164</v>
       </c>
       <c r="J520">
         <v>41.652</v>
@@ -21441,10 +21441,10 @@
         <v>170.204</v>
       </c>
       <c r="L520">
-        <v>379.562</v>
+        <v>393.021</v>
       </c>
       <c r="M520">
-        <v>812.101</v>
+        <v>825.494</v>
       </c>
     </row>
     <row r="521" spans="1:13">
@@ -21455,10 +21455,10 @@
         <v>183.33</v>
       </c>
       <c r="C521">
-        <v>398.364</v>
+        <v>412.271</v>
       </c>
       <c r="D521">
-        <v>806.602</v>
+        <v>820.437</v>
       </c>
       <c r="E521">
         <v>187.549</v>
@@ -21467,13 +21467,13 @@
         <v>18.348</v>
       </c>
       <c r="G521">
-        <v>42.508</v>
+        <v>42.436</v>
       </c>
       <c r="H521">
         <v>159.833</v>
       </c>
       <c r="I521">
-        <v>172.695</v>
+        <v>186.602</v>
       </c>
       <c r="J521">
         <v>42.339</v>
@@ -21482,10 +21482,10 @@
         <v>185.121</v>
       </c>
       <c r="L521">
-        <v>400.155</v>
+        <v>414.061</v>
       </c>
       <c r="M521">
-        <v>808.393</v>
+        <v>822.227</v>
       </c>
     </row>
     <row r="522" spans="1:13">
@@ -21496,10 +21496,10 @@
         <v>184.164</v>
       </c>
       <c r="C522">
-        <v>396.702</v>
+        <v>410.16</v>
       </c>
       <c r="D522">
-        <v>772.563</v>
+        <v>785.948</v>
       </c>
       <c r="E522">
         <v>190.239</v>
@@ -21508,13 +21508,13 @@
         <v>17.349</v>
       </c>
       <c r="G522">
-        <v>43.201</v>
+        <v>43.128</v>
       </c>
       <c r="H522">
         <v>125.073</v>
       </c>
       <c r="I522">
-        <v>170.552</v>
+        <v>184.011</v>
       </c>
       <c r="J522">
         <v>41.985</v>
@@ -21523,10 +21523,10 @@
         <v>186.184</v>
       </c>
       <c r="L522">
-        <v>398.722</v>
+        <v>412.18</v>
       </c>
       <c r="M522">
-        <v>774.584</v>
+        <v>787.969</v>
       </c>
     </row>
     <row r="523" spans="1:13">
@@ -21537,10 +21537,10 @@
         <v>187.267</v>
       </c>
       <c r="C523">
-        <v>411.496</v>
+        <v>425.403</v>
       </c>
       <c r="D523">
-        <v>797.737</v>
+        <v>811.566</v>
       </c>
       <c r="E523">
         <v>195.832</v>
@@ -21549,13 +21549,13 @@
         <v>18.036</v>
       </c>
       <c r="G523">
-        <v>44.931</v>
+        <v>44.854</v>
       </c>
       <c r="H523">
         <v>127.442</v>
       </c>
       <c r="I523">
-        <v>178.621</v>
+        <v>192.528</v>
       </c>
       <c r="J523">
         <v>45.608</v>
@@ -21564,10 +21564,10 @@
         <v>188.694</v>
       </c>
       <c r="L523">
-        <v>412.923</v>
+        <v>426.83</v>
       </c>
       <c r="M523">
-        <v>799.164</v>
+        <v>812.993</v>
       </c>
     </row>
     <row r="524" spans="1:13">
@@ -21578,10 +21578,10 @@
         <v>184.812</v>
       </c>
       <c r="C524">
-        <v>408.341</v>
+        <v>422.247</v>
       </c>
       <c r="D524">
-        <v>771.59</v>
+        <v>785.42</v>
       </c>
       <c r="E524">
         <v>178.199</v>
@@ -21590,13 +21590,13 @@
         <v>17.919</v>
       </c>
       <c r="G524">
-        <v>45.238</v>
+        <v>45.162</v>
       </c>
       <c r="H524">
         <v>121.893</v>
       </c>
       <c r="I524">
-        <v>179.457</v>
+        <v>193.364</v>
       </c>
       <c r="J524">
         <v>44.071</v>
@@ -21605,10 +21605,10 @@
         <v>189.046</v>
       </c>
       <c r="L524">
-        <v>412.574</v>
+        <v>426.481</v>
       </c>
       <c r="M524">
-        <v>775.823</v>
+        <v>789.654</v>
       </c>
     </row>
     <row r="525" spans="1:13">
@@ -21619,10 +21619,10 @@
         <v>175.497</v>
       </c>
       <c r="C525">
-        <v>387.217</v>
+        <v>400.675</v>
       </c>
       <c r="D525">
-        <v>722.778</v>
+        <v>736.167</v>
       </c>
       <c r="E525">
         <v>149.981</v>
@@ -21631,13 +21631,13 @@
         <v>16.429</v>
       </c>
       <c r="G525">
-        <v>38.951</v>
+        <v>38.882</v>
       </c>
       <c r="H525">
         <v>130.201</v>
       </c>
       <c r="I525">
-        <v>169.853</v>
+        <v>183.311</v>
       </c>
       <c r="J525">
         <v>41.867</v>
@@ -21646,10 +21646,10 @@
         <v>182.449</v>
       </c>
       <c r="L525">
-        <v>394.169</v>
+        <v>407.627</v>
       </c>
       <c r="M525">
-        <v>729.731</v>
+        <v>743.119</v>
       </c>
     </row>
     <row r="526" spans="1:13">
@@ -21660,10 +21660,10 @@
         <v>183.159</v>
       </c>
       <c r="C526">
-        <v>395.069</v>
+        <v>408.976</v>
       </c>
       <c r="D526">
-        <v>754.686</v>
+        <v>768.53</v>
       </c>
       <c r="E526">
         <v>154.979</v>
@@ -21672,13 +21672,13 @@
         <v>17.722</v>
       </c>
       <c r="G526">
-        <v>34.27</v>
+        <v>34.208</v>
       </c>
       <c r="H526">
         <v>152.646</v>
       </c>
       <c r="I526">
-        <v>167.367</v>
+        <v>181.274</v>
       </c>
       <c r="J526">
         <v>44.543</v>
@@ -21687,10 +21687,10 @@
         <v>183.848</v>
       </c>
       <c r="L526">
-        <v>395.758</v>
+        <v>409.665</v>
       </c>
       <c r="M526">
-        <v>755.375</v>
+        <v>769.219</v>
       </c>
     </row>
     <row r="527" spans="1:13">
@@ -21701,10 +21701,10 @@
         <v>181.749</v>
       </c>
       <c r="C527">
-        <v>396.414</v>
+        <v>409.873</v>
       </c>
       <c r="D527">
-        <v>807.311</v>
+        <v>820.719</v>
       </c>
       <c r="E527">
         <v>180.209</v>
@@ -21713,25 +21713,25 @@
         <v>17.647</v>
       </c>
       <c r="G527">
-        <v>29.627</v>
+        <v>29.576</v>
       </c>
       <c r="H527">
         <v>183.414</v>
       </c>
       <c r="I527">
-        <v>169.516</v>
+        <v>182.974</v>
       </c>
       <c r="J527">
         <v>45.15</v>
       </c>
       <c r="K527">
-        <v>178.593</v>
+        <v>178.594</v>
       </c>
       <c r="L527">
-        <v>393.258</v>
+        <v>406.717</v>
       </c>
       <c r="M527">
-        <v>804.156</v>
+        <v>817.563</v>
       </c>
     </row>
     <row r="528" spans="1:13">
@@ -21742,10 +21742,10 @@
         <v>189.898</v>
       </c>
       <c r="C528">
-        <v>413.67</v>
+        <v>427.577</v>
       </c>
       <c r="D528">
-        <v>862.273</v>
+        <v>876.132</v>
       </c>
       <c r="E528">
         <v>215.88</v>
@@ -21754,13 +21754,13 @@
         <v>18.225</v>
       </c>
       <c r="G528">
-        <v>27.201</v>
+        <v>27.154</v>
       </c>
       <c r="H528">
         <v>187.297</v>
       </c>
       <c r="I528">
-        <v>177.027</v>
+        <v>190.934</v>
       </c>
       <c r="J528">
         <v>46.745</v>
@@ -21769,10 +21769,10 @@
         <v>184.62</v>
       </c>
       <c r="L528">
-        <v>408.392</v>
+        <v>422.299</v>
       </c>
       <c r="M528">
-        <v>856.995</v>
+        <v>870.855</v>
       </c>
     </row>
     <row r="529" spans="1:13">
@@ -21780,40 +21780,40 @@
         <v>42370</v>
       </c>
       <c r="B529">
-        <v>184.472</v>
+        <v>185.228</v>
       </c>
       <c r="C529">
-        <v>405.601</v>
+        <v>416.503</v>
       </c>
       <c r="D529">
-        <v>861.28</v>
+        <v>867.13</v>
       </c>
       <c r="E529">
-        <v>236.949</v>
+        <v>236.473</v>
       </c>
       <c r="F529">
-        <v>19.091</v>
+        <v>17.675</v>
       </c>
       <c r="G529">
-        <v>26.946</v>
+        <v>25.996</v>
       </c>
       <c r="H529">
-        <v>172.694</v>
+        <v>170.482</v>
       </c>
       <c r="I529">
-        <v>171.978</v>
+        <v>184.195</v>
       </c>
       <c r="J529">
-        <v>44.234</v>
+        <v>42.164</v>
       </c>
       <c r="K529">
-        <v>171.868</v>
+        <v>171.332</v>
       </c>
       <c r="L529">
-        <v>388.08</v>
+        <v>397.691</v>
       </c>
       <c r="M529">
-        <v>843.76</v>
+        <v>848.318</v>
       </c>
     </row>
     <row r="530" spans="1:13">
@@ -21821,40 +21821,40 @@
         <v>42401</v>
       </c>
       <c r="B530">
-        <v>175.284</v>
+        <v>176.031</v>
       </c>
       <c r="C530">
-        <v>382.885</v>
+        <v>396.497</v>
       </c>
       <c r="D530">
-        <v>851.738</v>
+        <v>856.816</v>
       </c>
       <c r="E530">
-        <v>225.051</v>
+        <v>222.851</v>
       </c>
       <c r="F530">
-        <v>17.817</v>
+        <v>16.51</v>
       </c>
       <c r="G530">
-        <v>37.708</v>
+        <v>35.041</v>
       </c>
       <c r="H530">
-        <v>188.277</v>
+        <v>185.916</v>
       </c>
       <c r="I530">
-        <v>159.832</v>
+        <v>173.376</v>
       </c>
       <c r="J530">
-        <v>41.147</v>
+        <v>40.467</v>
       </c>
       <c r="K530">
-        <v>174.158</v>
+        <v>173.47</v>
       </c>
       <c r="L530">
-        <v>375.137</v>
+        <v>387.313</v>
       </c>
       <c r="M530">
-        <v>843.99</v>
+        <v>847.633</v>
       </c>
     </row>
     <row r="531" spans="1:13">
@@ -21862,40 +21862,40 @@
         <v>42430</v>
       </c>
       <c r="B531">
-        <v>189.242</v>
+        <v>190.242</v>
       </c>
       <c r="C531">
-        <v>402.873</v>
+        <v>417.142</v>
       </c>
       <c r="D531">
-        <v>923.695</v>
+        <v>933.352</v>
       </c>
       <c r="E531">
-        <v>251.845</v>
+        <v>252.863</v>
       </c>
       <c r="F531">
-        <v>18.987</v>
+        <v>17.52</v>
       </c>
       <c r="G531">
-        <v>45.164</v>
+        <v>43.282</v>
       </c>
       <c r="H531">
-        <v>204.825</v>
+        <v>202.545</v>
       </c>
       <c r="I531">
-        <v>163.693</v>
+        <v>177.483</v>
       </c>
       <c r="J531">
-        <v>44.065</v>
+        <v>43.543</v>
       </c>
       <c r="K531">
-        <v>187.689</v>
+        <v>187.08</v>
       </c>
       <c r="L531">
-        <v>395.447</v>
+        <v>408.107</v>
       </c>
       <c r="M531">
-        <v>916.269</v>
+        <v>924.317</v>
       </c>
     </row>
     <row r="532" spans="1:13">
@@ -21903,40 +21903,40 @@
         <v>42461</v>
       </c>
       <c r="B532">
-        <v>173.648</v>
+        <v>174.648</v>
       </c>
       <c r="C532">
-        <v>377.001</v>
+        <v>388.198</v>
       </c>
       <c r="D532">
-        <v>875.052</v>
+        <v>883.421</v>
       </c>
       <c r="E532">
-        <v>237.405</v>
+        <v>238.906</v>
       </c>
       <c r="F532">
-        <v>17.688</v>
+        <v>16.366</v>
       </c>
       <c r="G532">
-        <v>49.638</v>
+        <v>47.932</v>
       </c>
       <c r="H532">
-        <v>193.321</v>
+        <v>192.019</v>
       </c>
       <c r="I532">
-        <v>153.977</v>
+        <v>165.964</v>
       </c>
       <c r="J532">
-        <v>44.468</v>
+        <v>42.678</v>
       </c>
       <c r="K532">
-        <v>173.474</v>
+        <v>173.059</v>
       </c>
       <c r="L532">
-        <v>371.919</v>
+        <v>381.701</v>
       </c>
       <c r="M532">
-        <v>869.971</v>
+        <v>876.924</v>
       </c>
     </row>
     <row r="533" spans="1:13">
@@ -21944,40 +21944,40 @@
         <v>42491</v>
       </c>
       <c r="B533">
-        <v>187.816</v>
+        <v>188.777</v>
       </c>
       <c r="C533">
-        <v>398.216</v>
+        <v>411.341</v>
       </c>
       <c r="D533">
-        <v>886.868</v>
+        <v>893.576</v>
       </c>
       <c r="E533">
-        <v>236.352</v>
+        <v>235.29</v>
       </c>
       <c r="F533">
-        <v>19.133</v>
+        <v>17.766</v>
       </c>
       <c r="G533">
-        <v>58.012</v>
+        <v>55.174</v>
       </c>
       <c r="H533">
-        <v>175.155</v>
+        <v>174.004</v>
       </c>
       <c r="I533">
-        <v>160.407</v>
+        <v>173.123</v>
       </c>
       <c r="J533">
-        <v>43.492</v>
+        <v>42.94</v>
       </c>
       <c r="K533">
-        <v>190.662</v>
+        <v>192.405</v>
       </c>
       <c r="L533">
-        <v>394.561</v>
+        <v>408.468</v>
       </c>
       <c r="M533">
-        <v>883.212</v>
+        <v>890.702</v>
       </c>
     </row>
     <row r="534" spans="1:13">
@@ -21985,40 +21985,40 @@
         <v>42522</v>
       </c>
       <c r="B534">
-        <v>188.304</v>
+        <v>189.35</v>
       </c>
       <c r="C534">
-        <v>402.584</v>
+        <v>412.454</v>
       </c>
       <c r="D534">
-        <v>844.656</v>
+        <v>850.479</v>
       </c>
       <c r="E534">
-        <v>213.425</v>
+        <v>214.523</v>
       </c>
       <c r="F534">
-        <v>17.913</v>
+        <v>16.758</v>
       </c>
       <c r="G534">
-        <v>58.663</v>
+        <v>56.232</v>
       </c>
       <c r="H534">
-        <v>152.071</v>
+        <v>150.513</v>
       </c>
       <c r="I534">
-        <v>162.746</v>
+        <v>174.828</v>
       </c>
       <c r="J534">
-        <v>43.326</v>
+        <v>40.067</v>
       </c>
       <c r="K534">
-        <v>190.528</v>
+        <v>191.748</v>
       </c>
       <c r="L534">
-        <v>396.6</v>
+        <v>406.643</v>
       </c>
       <c r="M534">
-        <v>838.672</v>
+        <v>844.669</v>
       </c>
     </row>
     <row r="535" spans="1:13">
@@ -22026,40 +22026,40 @@
         <v>42552</v>
       </c>
       <c r="B535">
-        <v>194.692</v>
+        <v>195.919</v>
       </c>
       <c r="C535">
-        <v>411.574</v>
+        <v>422.327</v>
       </c>
       <c r="D535">
-        <v>856.322</v>
+        <v>862.031</v>
       </c>
       <c r="E535">
-        <v>197.999</v>
+        <v>198.076</v>
       </c>
       <c r="F535">
-        <v>18.65</v>
+        <v>17.484</v>
       </c>
       <c r="G535">
-        <v>64.135</v>
+        <v>61.492</v>
       </c>
       <c r="H535">
-        <v>163.964</v>
+        <v>162.653</v>
       </c>
       <c r="I535">
-        <v>167.77</v>
+        <v>180.841</v>
       </c>
       <c r="J535">
-        <v>44.993</v>
+        <v>41.448</v>
       </c>
       <c r="K535">
-        <v>200.87</v>
+        <v>200.618</v>
       </c>
       <c r="L535">
-        <v>413.633</v>
+        <v>422.908</v>
       </c>
       <c r="M535">
-        <v>858.381</v>
+        <v>862.611</v>
       </c>
     </row>
     <row r="536" spans="1:13">
@@ -22067,40 +22067,40 @@
         <v>42583</v>
       </c>
       <c r="B536">
-        <v>197.424</v>
+        <v>198.477</v>
       </c>
       <c r="C536">
-        <v>416.092</v>
+        <v>429.04</v>
       </c>
       <c r="D536">
-        <v>803.669</v>
+        <v>813.749</v>
       </c>
       <c r="E536">
-        <v>180.407</v>
+        <v>180.666</v>
       </c>
       <c r="F536">
-        <v>18.831</v>
+        <v>17.604</v>
       </c>
       <c r="G536">
-        <v>61.967</v>
+        <v>60.982</v>
       </c>
       <c r="H536">
-        <v>126.371</v>
+        <v>125.457</v>
       </c>
       <c r="I536">
-        <v>168.04</v>
+        <v>182.568</v>
       </c>
       <c r="J536">
-        <v>44.59</v>
+        <v>41.958</v>
       </c>
       <c r="K536">
-        <v>204.28</v>
+        <v>204.085</v>
       </c>
       <c r="L536">
-        <v>416.911</v>
+        <v>428.61</v>
       </c>
       <c r="M536">
-        <v>804.487</v>
+        <v>813.319</v>
       </c>
     </row>
     <row r="537" spans="1:13">
@@ -22108,40 +22108,40 @@
         <v>42614</v>
       </c>
       <c r="B537">
-        <v>185.829</v>
+        <v>187.216</v>
       </c>
       <c r="C537">
-        <v>392.462</v>
+        <v>405.026</v>
       </c>
       <c r="D537">
-        <v>772.831</v>
+        <v>780.335</v>
       </c>
       <c r="E537">
-        <v>151.722</v>
+        <v>151.106</v>
       </c>
       <c r="F537">
-        <v>18.723</v>
+        <v>17.453</v>
       </c>
       <c r="G537">
-        <v>56.81</v>
+        <v>55.312</v>
       </c>
       <c r="H537">
-        <v>153.115</v>
+        <v>151.438</v>
       </c>
       <c r="I537">
-        <v>158.732</v>
+        <v>171.504</v>
       </c>
       <c r="J537">
-        <v>40.902</v>
+        <v>39.307</v>
       </c>
       <c r="K537">
-        <v>191.68</v>
+        <v>193.608</v>
       </c>
       <c r="L537">
-        <v>391.314</v>
+        <v>404.42</v>
       </c>
       <c r="M537">
-        <v>771.684</v>
+        <v>779.729</v>
       </c>
     </row>
     <row r="538" spans="1:13">
@@ -22149,40 +22149,40 @@
         <v>42644</v>
       </c>
       <c r="B538">
-        <v>192.38</v>
+        <v>193.852</v>
       </c>
       <c r="C538">
-        <v>398.828</v>
+        <v>412.494</v>
       </c>
       <c r="D538">
-        <v>818.703</v>
+        <v>827.09</v>
       </c>
       <c r="E538">
-        <v>160.743</v>
+        <v>160.072</v>
       </c>
       <c r="F538">
-        <v>19.255</v>
+        <v>17.871</v>
       </c>
       <c r="G538">
-        <v>49.953</v>
+        <v>48.917</v>
       </c>
       <c r="H538">
-        <v>189.925</v>
+        <v>187.736</v>
       </c>
       <c r="I538">
-        <v>157.825</v>
+        <v>171.823</v>
       </c>
       <c r="J538">
-        <v>42.518</v>
+        <v>40.714</v>
       </c>
       <c r="K538">
-        <v>193.266</v>
+        <v>194.805</v>
       </c>
       <c r="L538">
-        <v>393.61</v>
+        <v>407.342</v>
       </c>
       <c r="M538">
-        <v>813.485</v>
+        <v>821.938</v>
       </c>
     </row>
     <row r="539" spans="1:13">
@@ -22190,40 +22190,40 @@
         <v>42675</v>
       </c>
       <c r="B539">
-        <v>191.108</v>
+        <v>192.014</v>
       </c>
       <c r="C539">
-        <v>400.665</v>
+        <v>415.399</v>
       </c>
       <c r="D539">
-        <v>817.077</v>
+        <v>827.287</v>
       </c>
       <c r="E539">
-        <v>175.335</v>
+        <v>173.638</v>
       </c>
       <c r="F539">
-        <v>19.245</v>
+        <v>17.796</v>
       </c>
       <c r="G539">
-        <v>41.581</v>
+        <v>41.301</v>
       </c>
       <c r="H539">
-        <v>180.25</v>
+        <v>179.153</v>
       </c>
       <c r="I539">
-        <v>162.04</v>
+        <v>175.254</v>
       </c>
       <c r="J539">
-        <v>42.708</v>
+        <v>43.322</v>
       </c>
       <c r="K539">
-        <v>195.682</v>
+        <v>194.544</v>
       </c>
       <c r="L539">
-        <v>400.429</v>
+        <v>413.121</v>
       </c>
       <c r="M539">
-        <v>816.842</v>
+        <v>825.008</v>
       </c>
     </row>
     <row r="540" spans="1:13">
@@ -22231,40 +22231,40 @@
         <v>42705</v>
       </c>
       <c r="B540">
-        <v>201.853</v>
+        <v>203.194</v>
       </c>
       <c r="C540">
-        <v>427.014</v>
+        <v>455.535</v>
       </c>
       <c r="D540">
-        <v>908.294</v>
+        <v>932.996</v>
       </c>
       <c r="E540">
-        <v>210.031</v>
+        <v>207.976</v>
       </c>
       <c r="F540">
-        <v>20.475</v>
+        <v>18.801</v>
       </c>
       <c r="G540">
-        <v>36.521</v>
+        <v>37.004</v>
       </c>
       <c r="H540">
-        <v>214.253</v>
+        <v>213.679</v>
       </c>
       <c r="I540">
-        <v>172.266</v>
+        <v>200.255</v>
       </c>
       <c r="J540">
-        <v>45.419</v>
+        <v>44.61</v>
       </c>
       <c r="K540">
-        <v>201.05</v>
+        <v>202.068</v>
       </c>
       <c r="L540">
-        <v>418.735</v>
+        <v>446.932</v>
       </c>
       <c r="M540">
-        <v>900.014</v>
+        <v>924.392</v>
       </c>
     </row>
     <row r="541" spans="1:13">
@@ -22272,40 +22272,40 @@
         <v>42736</v>
       </c>
       <c r="B541">
-        <v>193.477</v>
+        <v>195.404</v>
       </c>
       <c r="C541">
-        <v>416.442</v>
+        <v>429.95</v>
       </c>
       <c r="D541">
-        <v>919.956</v>
+        <v>931.523</v>
       </c>
       <c r="E541">
-        <v>258.177</v>
+        <v>257.14</v>
       </c>
       <c r="F541">
-        <v>19.749</v>
+        <v>18.313</v>
       </c>
       <c r="G541">
-        <v>35.95</v>
+        <v>34.568</v>
       </c>
       <c r="H541">
-        <v>189.638</v>
+        <v>191.551</v>
       </c>
       <c r="I541">
-        <v>169.669</v>
+        <v>184.072</v>
       </c>
       <c r="J541">
-        <v>46.733</v>
+        <v>43.911</v>
       </c>
       <c r="K541">
-        <v>176.896</v>
+        <v>177.482</v>
       </c>
       <c r="L541">
-        <v>393.299</v>
+        <v>405.465</v>
       </c>
       <c r="M541">
-        <v>896.813</v>
+        <v>907.038</v>
       </c>
     </row>
     <row r="542" spans="1:13">
@@ -22313,40 +22313,40 @@
         <v>42767</v>
       </c>
       <c r="B542">
-        <v>173.889</v>
+        <v>175.638</v>
       </c>
       <c r="C542">
-        <v>375.733</v>
+        <v>389.397</v>
       </c>
       <c r="D542">
-        <v>865.952</v>
+        <v>876.908</v>
       </c>
       <c r="E542">
-        <v>229.352</v>
+        <v>226.569</v>
       </c>
       <c r="F542">
-        <v>17.632</v>
+        <v>16.331</v>
       </c>
       <c r="G542">
-        <v>41.091</v>
+        <v>39.401</v>
       </c>
       <c r="H542">
-        <v>202.144</v>
+        <v>205.211</v>
       </c>
       <c r="I542">
-        <v>154.814</v>
+        <v>169.209</v>
       </c>
       <c r="J542">
-        <v>41.6</v>
+        <v>39.121</v>
       </c>
       <c r="K542">
-        <v>165.17</v>
+        <v>165.621</v>
       </c>
       <c r="L542">
-        <v>361.584</v>
+        <v>373.951</v>
       </c>
       <c r="M542">
-        <v>851.804</v>
+        <v>861.462</v>
       </c>
     </row>
     <row r="543" spans="1:13">
@@ -22357,37 +22357,529 @@
         <v>195.997</v>
       </c>
       <c r="C543">
-        <v>416.97</v>
+        <v>426.724</v>
       </c>
       <c r="D543">
-        <v>1022.577</v>
+        <v>1029.521</v>
       </c>
       <c r="E543">
-        <v>281.415</v>
+        <v>278.999</v>
       </c>
       <c r="F543">
-        <v>19.676</v>
+        <v>18.132</v>
       </c>
       <c r="G543">
-        <v>65.959</v>
+        <v>64.409</v>
       </c>
       <c r="H543">
-        <v>238.556</v>
+        <v>241.257</v>
       </c>
       <c r="I543">
-        <v>168.991</v>
+        <v>181.108</v>
       </c>
       <c r="J543">
-        <v>45.028</v>
+        <v>42.665</v>
       </c>
       <c r="K543">
-        <v>190.165</v>
+        <v>190.12</v>
       </c>
       <c r="L543">
-        <v>404.184</v>
+        <v>413.893</v>
       </c>
       <c r="M543">
-        <v>1009.791</v>
+        <v>1016.69</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13">
+      <c r="A544" s="6">
+        <v>42826</v>
+      </c>
+      <c r="B544">
+        <v>182.462</v>
+      </c>
+      <c r="C544">
+        <v>398.856</v>
+      </c>
+      <c r="D544">
+        <v>995.244</v>
+      </c>
+      <c r="E544">
+        <v>270.679</v>
+      </c>
+      <c r="F544">
+        <v>17.75</v>
+      </c>
+      <c r="G544">
+        <v>70.208</v>
+      </c>
+      <c r="H544">
+        <v>237.751</v>
+      </c>
+      <c r="I544">
+        <v>171.134</v>
+      </c>
+      <c r="J544">
+        <v>39.42</v>
+      </c>
+      <c r="K544">
+        <v>182.924</v>
+      </c>
+      <c r="L544">
+        <v>393.478</v>
+      </c>
+      <c r="M544">
+        <v>989.866</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13">
+      <c r="A545" s="6">
+        <v>42856</v>
+      </c>
+      <c r="B545">
+        <v>196.188</v>
+      </c>
+      <c r="C545">
+        <v>416.508</v>
+      </c>
+      <c r="D545">
+        <v>1022.029</v>
+      </c>
+      <c r="E545">
+        <v>297.058</v>
+      </c>
+      <c r="F545">
+        <v>17.349</v>
+      </c>
+      <c r="G545">
+        <v>82.084</v>
+      </c>
+      <c r="H545">
+        <v>209.03</v>
+      </c>
+      <c r="I545">
+        <v>175.568</v>
+      </c>
+      <c r="J545">
+        <v>39.374</v>
+      </c>
+      <c r="K545">
+        <v>199.78</v>
+      </c>
+      <c r="L545">
+        <v>414.722</v>
+      </c>
+      <c r="M545">
+        <v>1020.243</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13">
+      <c r="A546" s="6">
+        <v>42887</v>
+      </c>
+      <c r="B546">
+        <v>190.91</v>
+      </c>
+      <c r="C546">
+        <v>413.319</v>
+      </c>
+      <c r="D546">
+        <v>980.37</v>
+      </c>
+      <c r="E546">
+        <v>280.873</v>
+      </c>
+      <c r="F546">
+        <v>16.895</v>
+      </c>
+      <c r="G546">
+        <v>87.309</v>
+      </c>
+      <c r="H546">
+        <v>181.973</v>
+      </c>
+      <c r="I546">
+        <v>177.266</v>
+      </c>
+      <c r="J546">
+        <v>38.465</v>
+      </c>
+      <c r="K546">
+        <v>198.379</v>
+      </c>
+      <c r="L546">
+        <v>414.109</v>
+      </c>
+      <c r="M546">
+        <v>981.159</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13">
+      <c r="A547" s="6">
+        <v>42917</v>
+      </c>
+      <c r="B547">
+        <v>195.189</v>
+      </c>
+      <c r="C547">
+        <v>425.652</v>
+      </c>
+      <c r="D547">
+        <v>908.188</v>
+      </c>
+      <c r="E547">
+        <v>237.678</v>
+      </c>
+      <c r="F547">
+        <v>18.021</v>
+      </c>
+      <c r="G547">
+        <v>81.295</v>
+      </c>
+      <c r="H547">
+        <v>145.542</v>
+      </c>
+      <c r="I547">
+        <v>184.961</v>
+      </c>
+      <c r="J547">
+        <v>39.955</v>
+      </c>
+      <c r="K547">
+        <v>197.739</v>
+      </c>
+      <c r="L547">
+        <v>422.655</v>
+      </c>
+      <c r="M547">
+        <v>905.191</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13">
+      <c r="A548" s="6">
+        <v>42948</v>
+      </c>
+      <c r="B548">
+        <v>202.113</v>
+      </c>
+      <c r="C548">
+        <v>435.86</v>
+      </c>
+      <c r="D548">
+        <v>850.147</v>
+      </c>
+      <c r="E548">
+        <v>196.095</v>
+      </c>
+      <c r="F548">
+        <v>17.921</v>
+      </c>
+      <c r="G548">
+        <v>79.435</v>
+      </c>
+      <c r="H548">
+        <v>120.836</v>
+      </c>
+      <c r="I548">
+        <v>187.133</v>
+      </c>
+      <c r="J548">
+        <v>40.108</v>
+      </c>
+      <c r="K548">
+        <v>202.286</v>
+      </c>
+      <c r="L548">
+        <v>429.527</v>
+      </c>
+      <c r="M548">
+        <v>843.814</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13">
+      <c r="A549" s="6">
+        <v>42979</v>
+      </c>
+      <c r="B549">
+        <v>191.39</v>
+      </c>
+      <c r="C549">
+        <v>407.216</v>
+      </c>
+      <c r="D549">
+        <v>833.366</v>
+      </c>
+      <c r="E549">
+        <v>175.081</v>
+      </c>
+      <c r="F549">
+        <v>17.456</v>
+      </c>
+      <c r="G549">
+        <v>74.195</v>
+      </c>
+      <c r="H549">
+        <v>159.419</v>
+      </c>
+      <c r="I549">
+        <v>171.363</v>
+      </c>
+      <c r="J549">
+        <v>37.08</v>
+      </c>
+      <c r="K549">
+        <v>190.578</v>
+      </c>
+      <c r="L549">
+        <v>399.021</v>
+      </c>
+      <c r="M549">
+        <v>825.171</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13">
+      <c r="A550" s="6">
+        <v>43009</v>
+      </c>
+      <c r="B550">
+        <v>199.73</v>
+      </c>
+      <c r="C550">
+        <v>424.109</v>
+      </c>
+      <c r="D550">
+        <v>897.44</v>
+      </c>
+      <c r="E550">
+        <v>158.887</v>
+      </c>
+      <c r="F550">
+        <v>17.034</v>
+      </c>
+      <c r="G550">
+        <v>68.26</v>
+      </c>
+      <c r="H550">
+        <v>229.149</v>
+      </c>
+      <c r="I550">
+        <v>178.285</v>
+      </c>
+      <c r="J550">
+        <v>39.816</v>
+      </c>
+      <c r="K550">
+        <v>196.303</v>
+      </c>
+      <c r="L550">
+        <v>414.404</v>
+      </c>
+      <c r="M550">
+        <v>887.735</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13">
+      <c r="A551" s="6">
+        <v>43040</v>
+      </c>
+      <c r="B551">
+        <v>202.37</v>
+      </c>
+      <c r="C551">
+        <v>427.124</v>
+      </c>
+      <c r="D551">
+        <v>890.534</v>
+      </c>
+      <c r="E551">
+        <v>183.167</v>
+      </c>
+      <c r="F551">
+        <v>17.536</v>
+      </c>
+      <c r="G551">
+        <v>47.416</v>
+      </c>
+      <c r="H551">
+        <v>215.291</v>
+      </c>
+      <c r="I551">
+        <v>177.115</v>
+      </c>
+      <c r="J551">
+        <v>40.594</v>
+      </c>
+      <c r="K551">
+        <v>193.242</v>
+      </c>
+      <c r="L551">
+        <v>410.951</v>
+      </c>
+      <c r="M551">
+        <v>874.36</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13">
+      <c r="A552" s="6">
+        <v>43070</v>
+      </c>
+      <c r="B552">
+        <v>204.247</v>
+      </c>
+      <c r="C552">
+        <v>442.926</v>
+      </c>
+      <c r="D552">
+        <v>924.926</v>
+      </c>
+      <c r="E552">
+        <v>207.784</v>
+      </c>
+      <c r="F552">
+        <v>18.253</v>
+      </c>
+      <c r="G552">
+        <v>45.697</v>
+      </c>
+      <c r="H552">
+        <v>210.266</v>
+      </c>
+      <c r="I552">
+        <v>187.682</v>
+      </c>
+      <c r="J552">
+        <v>41.972</v>
+      </c>
+      <c r="K552">
+        <v>191.422</v>
+      </c>
+      <c r="L552">
+        <v>421.076</v>
+      </c>
+      <c r="M552">
+        <v>903.076</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13">
+      <c r="A553" s="6">
+        <v>43101</v>
+      </c>
+      <c r="B553">
+        <v>198.445</v>
+      </c>
+      <c r="C553">
+        <v>435.264</v>
+      </c>
+      <c r="D553">
+        <v>984.392</v>
+      </c>
+      <c r="E553">
+        <v>234.696</v>
+      </c>
+      <c r="F553">
+        <v>18.072</v>
+      </c>
+      <c r="G553">
+        <v>48.632</v>
+      </c>
+      <c r="H553">
+        <v>247.728</v>
+      </c>
+      <c r="I553">
+        <v>188.473</v>
+      </c>
+      <c r="J553">
+        <v>42.762</v>
+      </c>
+      <c r="K553">
+        <v>189.977</v>
+      </c>
+      <c r="L553">
+        <v>421.212</v>
+      </c>
+      <c r="M553">
+        <v>970.341</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13">
+      <c r="A554" s="6">
+        <v>43132</v>
+      </c>
+      <c r="B554">
+        <v>182.46</v>
+      </c>
+      <c r="C554">
+        <v>404.063</v>
+      </c>
+      <c r="D554">
+        <v>935.464</v>
+      </c>
+      <c r="E554">
+        <v>236.277</v>
+      </c>
+      <c r="F554">
+        <v>16.896</v>
+      </c>
+      <c r="G554">
+        <v>57.253</v>
+      </c>
+      <c r="H554">
+        <v>220.974</v>
+      </c>
+      <c r="I554">
+        <v>172.946</v>
+      </c>
+      <c r="J554">
+        <v>39.63</v>
+      </c>
+      <c r="K554">
+        <v>164.127</v>
+      </c>
+      <c r="L554">
+        <v>376.702</v>
+      </c>
+      <c r="M554">
+        <v>908.102</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13">
+      <c r="A555" s="6">
+        <v>43160</v>
+      </c>
+      <c r="B555">
+        <v>200.324</v>
+      </c>
+      <c r="C555">
+        <v>432.514</v>
+      </c>
+      <c r="D555">
+        <v>1016.024</v>
+      </c>
+      <c r="E555">
+        <v>238.991</v>
+      </c>
+      <c r="F555">
+        <v>18.179</v>
+      </c>
+      <c r="G555">
+        <v>74.537</v>
+      </c>
+      <c r="H555">
+        <v>251.803</v>
+      </c>
+      <c r="I555">
+        <v>183.69</v>
+      </c>
+      <c r="J555">
+        <v>42.996</v>
+      </c>
+      <c r="K555">
+        <v>190.268</v>
+      </c>
+      <c r="L555">
+        <v>416.954</v>
+      </c>
+      <c r="M555">
+        <v>1000.463</v>
       </c>
     </row>
   </sheetData>
@@ -22414,7 +22906,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -24199,7 +24691,7 @@
         <v>3159.357</v>
       </c>
       <c r="D53">
-        <v>6234.648</v>
+        <v>6234.647</v>
       </c>
       <c r="E53">
         <v>2837.263</v>
@@ -24208,7 +24700,7 @@
         <v>161.539</v>
       </c>
       <c r="G53">
-        <v>54.456</v>
+        <v>54.455</v>
       </c>
       <c r="H53">
         <v>22.033</v>
@@ -24226,7 +24718,7 @@
         <v>3159.357</v>
       </c>
       <c r="M53">
-        <v>6234.648</v>
+        <v>6234.647</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -24240,7 +24732,7 @@
         <v>2735.112</v>
       </c>
       <c r="D54">
-        <v>6040.013</v>
+        <v>6040.012</v>
       </c>
       <c r="E54">
         <v>3046.391</v>
@@ -24249,7 +24741,7 @@
         <v>170.747</v>
       </c>
       <c r="G54">
-        <v>58.756</v>
+        <v>58.755</v>
       </c>
       <c r="H54">
         <v>29.007</v>
@@ -24267,7 +24759,7 @@
         <v>2735.112</v>
       </c>
       <c r="M54">
-        <v>6040.013</v>
+        <v>6040.012</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -24281,7 +24773,7 @@
         <v>2781.797</v>
       </c>
       <c r="D55">
-        <v>6067.773</v>
+        <v>6067.771</v>
       </c>
       <c r="E55">
         <v>3015.943</v>
@@ -24290,7 +24782,7 @@
         <v>177.626</v>
       </c>
       <c r="G55">
-        <v>61.61</v>
+        <v>61.609</v>
       </c>
       <c r="H55">
         <v>30.796</v>
@@ -24308,7 +24800,7 @@
         <v>2781.797</v>
       </c>
       <c r="M55">
-        <v>6067.773</v>
+        <v>6067.771</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -24322,7 +24814,7 @@
         <v>2931.678</v>
       </c>
       <c r="D56">
-        <v>5820.543</v>
+        <v>5820.541</v>
       </c>
       <c r="E56">
         <v>2617.436</v>
@@ -24331,7 +24823,7 @@
         <v>178.699</v>
       </c>
       <c r="G56">
-        <v>62.867</v>
+        <v>62.865</v>
       </c>
       <c r="H56">
         <v>29.863</v>
@@ -24349,7 +24841,7 @@
         <v>2931.678</v>
       </c>
       <c r="M56">
-        <v>5820.543</v>
+        <v>5820.541</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -24363,7 +24855,7 @@
         <v>2908.446</v>
       </c>
       <c r="D57">
-        <v>6081.894</v>
+        <v>6081.893</v>
       </c>
       <c r="E57">
         <v>2891.613</v>
@@ -24372,7 +24864,7 @@
         <v>185.673</v>
       </c>
       <c r="G57">
-        <v>65.175</v>
+        <v>65.173</v>
       </c>
       <c r="H57">
         <v>30.987</v>
@@ -24390,7 +24882,7 @@
         <v>2908.172</v>
       </c>
       <c r="M57">
-        <v>6081.62</v>
+        <v>6081.619</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -24404,7 +24896,7 @@
         <v>3027.534</v>
       </c>
       <c r="D58">
-        <v>5987.125</v>
+        <v>5987.123</v>
       </c>
       <c r="E58">
         <v>2683.457</v>
@@ -24413,7 +24905,7 @@
         <v>173.464</v>
       </c>
       <c r="G58">
-        <v>67.11</v>
+        <v>67.108</v>
       </c>
       <c r="H58">
         <v>35.56</v>
@@ -24431,7 +24923,7 @@
         <v>3027.534</v>
       </c>
       <c r="M58">
-        <v>5987.125</v>
+        <v>5987.123</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -24445,7 +24937,7 @@
         <v>3099.082</v>
       </c>
       <c r="D59">
-        <v>6557.289</v>
+        <v>6557.288</v>
       </c>
       <c r="E59">
         <v>3205.307</v>
@@ -24454,7 +24946,7 @@
         <v>152.057</v>
       </c>
       <c r="G59">
-        <v>68.214</v>
+        <v>68.212</v>
       </c>
       <c r="H59">
         <v>32.63</v>
@@ -24472,7 +24964,7 @@
         <v>3101.142</v>
       </c>
       <c r="M59">
-        <v>6559.35</v>
+        <v>6559.348</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -24486,7 +24978,7 @@
         <v>3155.301</v>
       </c>
       <c r="D60">
-        <v>7010.867</v>
+        <v>7010.865</v>
       </c>
       <c r="E60">
         <v>3589.656</v>
@@ -24495,7 +24987,7 @@
         <v>163.359</v>
       </c>
       <c r="G60">
-        <v>69.112</v>
+        <v>69.11</v>
       </c>
       <c r="H60">
         <v>33.44</v>
@@ -24513,7 +25005,7 @@
         <v>3156.806</v>
       </c>
       <c r="M60">
-        <v>7012.372</v>
+        <v>7012.37</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -24527,7 +25019,7 @@
         <v>3107.908</v>
       </c>
       <c r="D61">
-        <v>7016.786</v>
+        <v>7016.784</v>
       </c>
       <c r="E61">
         <v>3640.458</v>
@@ -24536,7 +25028,7 @@
         <v>166.698</v>
       </c>
       <c r="G61">
-        <v>68.142</v>
+        <v>68.14</v>
       </c>
       <c r="H61">
         <v>33.581</v>
@@ -24554,7 +25046,7 @@
         <v>3105.22</v>
       </c>
       <c r="M61">
-        <v>7014.098</v>
+        <v>7014.096</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -24568,7 +25060,7 @@
         <v>2928.93</v>
       </c>
       <c r="D62">
-        <v>6492.708</v>
+        <v>6492.705</v>
       </c>
       <c r="E62">
         <v>3297.054</v>
@@ -24577,7 +25069,7 @@
         <v>168.45</v>
       </c>
       <c r="G62">
-        <v>67.422</v>
+        <v>67.419</v>
       </c>
       <c r="H62">
         <v>30.853</v>
@@ -24595,7 +25087,7 @@
         <v>2927.49</v>
       </c>
       <c r="M62">
-        <v>6491.268</v>
+        <v>6491.266</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -24609,7 +25101,7 @@
         <v>2965.132</v>
       </c>
       <c r="D63">
-        <v>6515.556</v>
+        <v>6515.553</v>
       </c>
       <c r="E63">
         <v>3267.575</v>
@@ -24618,7 +25110,7 @@
         <v>170.921</v>
       </c>
       <c r="G63">
-        <v>66.034</v>
+        <v>66.031</v>
       </c>
       <c r="H63">
         <v>45.894</v>
@@ -24636,7 +25128,7 @@
         <v>2963.29</v>
       </c>
       <c r="M63">
-        <v>6513.715</v>
+        <v>6513.712</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -24650,7 +25142,7 @@
         <v>3005.661</v>
       </c>
       <c r="D64">
-        <v>6101.631</v>
+        <v>6101.628</v>
       </c>
       <c r="E64">
         <v>2811.116</v>
@@ -24659,7 +25151,7 @@
         <v>164.364</v>
       </c>
       <c r="G64">
-        <v>63.433</v>
+        <v>63.43</v>
       </c>
       <c r="H64">
         <v>57.057</v>
@@ -24677,7 +25169,7 @@
         <v>3008.227</v>
       </c>
       <c r="M64">
-        <v>6104.198</v>
+        <v>6104.194</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -24691,7 +25183,7 @@
         <v>2624.162</v>
       </c>
       <c r="D65">
-        <v>5161.728</v>
+        <v>5161.724</v>
       </c>
       <c r="E65">
         <v>2241.858</v>
@@ -24700,7 +25192,7 @@
         <v>164.461</v>
       </c>
       <c r="G65">
-        <v>61.63</v>
+        <v>61.626</v>
       </c>
       <c r="H65">
         <v>69.617</v>
@@ -24718,7 +25210,7 @@
         <v>2622.356</v>
       </c>
       <c r="M65">
-        <v>5159.922</v>
+        <v>5159.918</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -24732,7 +25224,7 @@
         <v>2705.406</v>
       </c>
       <c r="D66">
-        <v>5730.85</v>
+        <v>5730.845</v>
       </c>
       <c r="E66">
         <v>2689.017</v>
@@ -24741,7 +25233,7 @@
         <v>171.164</v>
       </c>
       <c r="G66">
-        <v>59.928</v>
+        <v>59.923</v>
       </c>
       <c r="H66">
         <v>105.334</v>
@@ -24759,7 +25251,7 @@
         <v>2700.621</v>
       </c>
       <c r="M66">
-        <v>5726.064</v>
+        <v>5726.059</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -24773,7 +25265,7 @@
         <v>2804.778</v>
       </c>
       <c r="D67">
-        <v>5942.407</v>
+        <v>5942.401</v>
       </c>
       <c r="E67">
         <v>2792.539</v>
@@ -24782,7 +25274,7 @@
         <v>173.445</v>
       </c>
       <c r="G67">
-        <v>58.372</v>
+        <v>58.366</v>
       </c>
       <c r="H67">
         <v>113.273</v>
@@ -24800,7 +25292,7 @@
         <v>2806.471</v>
       </c>
       <c r="M67">
-        <v>5944.1</v>
+        <v>5944.094</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -24814,7 +25306,7 @@
         <v>2996.017</v>
       </c>
       <c r="D68">
-        <v>6062.597</v>
+        <v>6062.59</v>
       </c>
       <c r="E68">
         <v>2688.468</v>
@@ -24823,7 +25315,7 @@
         <v>178.147</v>
       </c>
       <c r="G68">
-        <v>58.302</v>
+        <v>58.295</v>
       </c>
       <c r="H68">
         <v>141.664</v>
@@ -24841,7 +25333,7 @@
         <v>3008.073</v>
       </c>
       <c r="M68">
-        <v>6074.653</v>
+        <v>6074.646</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -24855,7 +25347,7 @@
         <v>3101.186</v>
       </c>
       <c r="D69">
-        <v>6220.702</v>
+        <v>6220.691</v>
       </c>
       <c r="E69">
         <v>2702.942</v>
@@ -24864,7 +25356,7 @@
         <v>180.703</v>
       </c>
       <c r="G69">
-        <v>57.783</v>
+        <v>57.773</v>
       </c>
       <c r="H69">
         <v>178.088</v>
@@ -24882,7 +25374,7 @@
         <v>3113.93</v>
       </c>
       <c r="M69">
-        <v>6233.446</v>
+        <v>6233.436</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -24896,7 +25388,7 @@
         <v>3211.515</v>
       </c>
       <c r="D70">
-        <v>6586.084</v>
+        <v>6586.069</v>
       </c>
       <c r="E70">
         <v>2869.035</v>
@@ -24905,7 +25397,7 @@
         <v>181.2</v>
       </c>
       <c r="G70">
-        <v>60.596</v>
+        <v>60.581</v>
       </c>
       <c r="H70">
         <v>263.738</v>
@@ -24923,7 +25415,7 @@
         <v>3262.14</v>
       </c>
       <c r="M70">
-        <v>6636.709</v>
+        <v>6636.694</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -24937,7 +25429,7 @@
         <v>3472.08</v>
       </c>
       <c r="D71">
-        <v>6510.143</v>
+        <v>6510.121</v>
       </c>
       <c r="E71">
         <v>2446.389</v>
@@ -24946,7 +25438,7 @@
         <v>185.774</v>
       </c>
       <c r="G71">
-        <v>65.397</v>
+        <v>65.375</v>
       </c>
       <c r="H71">
         <v>340.503</v>
@@ -24964,7 +25456,7 @@
         <v>3484.824</v>
       </c>
       <c r="M71">
-        <v>6522.886</v>
+        <v>6522.865</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -24978,7 +25470,7 @@
         <v>3868.25</v>
       </c>
       <c r="D72">
-        <v>7191.188</v>
+        <v>7191.153</v>
       </c>
       <c r="E72">
         <v>2511.108</v>
@@ -24987,7 +25479,7 @@
         <v>192.433</v>
       </c>
       <c r="G72">
-        <v>73.848</v>
+        <v>73.814</v>
       </c>
       <c r="H72">
         <v>545.548</v>
@@ -25005,7 +25497,7 @@
         <v>3851.392</v>
       </c>
       <c r="M72">
-        <v>7174.33</v>
+        <v>7174.295</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -25019,7 +25511,7 @@
         <v>3952.617</v>
       </c>
       <c r="D73">
-        <v>7620.454</v>
+        <v>7620.408</v>
       </c>
       <c r="E73">
         <v>2668.824</v>
@@ -25028,7 +25520,7 @@
         <v>200.185</v>
       </c>
       <c r="G73">
-        <v>77.7</v>
+        <v>77.654</v>
       </c>
       <c r="H73">
         <v>721.129</v>
@@ -25046,7 +25538,7 @@
         <v>3936.03</v>
       </c>
       <c r="M73">
-        <v>7603.868</v>
+        <v>7603.822</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -25057,10 +25549,10 @@
         <v>1867.88</v>
       </c>
       <c r="C74">
-        <v>4316.479</v>
+        <v>4452.006</v>
       </c>
       <c r="D74">
-        <v>8076.904</v>
+        <v>8212.436</v>
       </c>
       <c r="E74">
         <v>2538.541</v>
@@ -25069,13 +25561,13 @@
         <v>207.979</v>
       </c>
       <c r="G74">
-        <v>90.478</v>
+        <v>90.483</v>
       </c>
       <c r="H74">
         <v>923.427</v>
       </c>
       <c r="I74">
-        <v>1980.687</v>
+        <v>2116.214</v>
       </c>
       <c r="J74">
         <v>467.912</v>
@@ -25084,10 +25576,10 @@
         <v>1821.121</v>
       </c>
       <c r="L74">
-        <v>4269.72</v>
+        <v>4405.248</v>
       </c>
       <c r="M74">
-        <v>8030.146</v>
+        <v>8165.678</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -25098,10 +25590,10 @@
         <v>2029.308</v>
       </c>
       <c r="C75">
-        <v>4501.348</v>
+        <v>4630.057</v>
       </c>
       <c r="D75">
-        <v>9095.038</v>
+        <v>9223.985</v>
       </c>
       <c r="E75">
         <v>3102.852</v>
@@ -25110,13 +25602,13 @@
         <v>212.311</v>
       </c>
       <c r="G75">
-        <v>110.891</v>
+        <v>111.129</v>
       </c>
       <c r="H75">
         <v>1167.636</v>
       </c>
       <c r="I75">
-        <v>2010.246</v>
+        <v>2138.956</v>
       </c>
       <c r="J75">
         <v>461.793</v>
@@ -25125,10 +25617,10 @@
         <v>1933.413</v>
       </c>
       <c r="L75">
-        <v>4405.452</v>
+        <v>4534.162</v>
       </c>
       <c r="M75">
-        <v>8999.143</v>
+        <v>9128.089</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -25139,10 +25631,10 @@
         <v>1928.887</v>
       </c>
       <c r="C76">
-        <v>4405.757</v>
+        <v>4528.61</v>
       </c>
       <c r="D76">
-        <v>8743.133</v>
+        <v>8865.812</v>
       </c>
       <c r="E76">
         <v>2628.702</v>
@@ -25151,13 +25643,13 @@
         <v>211.592</v>
       </c>
       <c r="G76">
-        <v>157.023</v>
+        <v>156.849</v>
       </c>
       <c r="H76">
         <v>1340.059</v>
       </c>
       <c r="I76">
-        <v>2010.266</v>
+        <v>2133.119</v>
       </c>
       <c r="J76">
         <v>466.604</v>
@@ -25166,10 +25658,10 @@
         <v>1892.252</v>
       </c>
       <c r="L76">
-        <v>4369.122</v>
+        <v>4491.974</v>
       </c>
       <c r="M76">
-        <v>8706.498</v>
+        <v>8829.177</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -25180,10 +25672,10 @@
         <v>1980.94</v>
       </c>
       <c r="C77">
-        <v>4646.919</v>
+        <v>4823.977</v>
       </c>
       <c r="D77">
-        <v>9249.702</v>
+        <v>9426.248</v>
       </c>
       <c r="E77">
         <v>2562.382</v>
@@ -25192,13 +25684,13 @@
         <v>214.006</v>
       </c>
       <c r="G77">
-        <v>225.035</v>
+        <v>224.523</v>
       </c>
       <c r="H77">
         <v>1601.359</v>
       </c>
       <c r="I77">
-        <v>2169.543</v>
+        <v>2346.601</v>
       </c>
       <c r="J77">
         <v>496.436</v>
@@ -25207,10 +25699,10 @@
         <v>2007.181</v>
       </c>
       <c r="L77">
-        <v>4673.16</v>
+        <v>4850.217</v>
       </c>
       <c r="M77">
-        <v>9275.942</v>
+        <v>9452.488</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -25221,10 +25713,10 @@
         <v>2103.411</v>
       </c>
       <c r="C78">
-        <v>4861.195</v>
+        <v>5028.791</v>
       </c>
       <c r="D78">
-        <v>9606.595</v>
+        <v>9774.338</v>
       </c>
       <c r="E78">
         <v>2466.577</v>
@@ -25233,13 +25725,13 @@
         <v>214.49</v>
       </c>
       <c r="G78">
-        <v>336.793</v>
+        <v>336.939</v>
       </c>
       <c r="H78">
         <v>1727.542</v>
       </c>
       <c r="I78">
-        <v>2241.906</v>
+        <v>2409.503</v>
       </c>
       <c r="J78">
         <v>515.877</v>
@@ -25248,10 +25740,10 @@
         <v>2066.833</v>
       </c>
       <c r="L78">
-        <v>4824.616</v>
+        <v>4992.212</v>
       </c>
       <c r="M78">
-        <v>9570.017</v>
+        <v>9737.76</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -25259,13 +25751,13 @@
         <v>2015</v>
       </c>
       <c r="B79">
-        <v>2161.439</v>
+        <v>2161.44</v>
       </c>
       <c r="C79">
-        <v>4750.626</v>
+        <v>4914.367</v>
       </c>
       <c r="D79">
-        <v>9487.408</v>
+        <v>9650.413</v>
       </c>
       <c r="E79">
         <v>2321.177</v>
@@ -25274,13 +25766,13 @@
         <v>211.836</v>
       </c>
       <c r="G79">
-        <v>426.463</v>
+        <v>425.727</v>
       </c>
       <c r="H79">
         <v>1777.306</v>
       </c>
       <c r="I79">
-        <v>2070.816</v>
+        <v>2234.557</v>
       </c>
       <c r="J79">
         <v>518.371</v>
@@ -25289,10 +25781,10 @@
         <v>2144.978</v>
       </c>
       <c r="L79">
-        <v>4734.165</v>
+        <v>4897.906</v>
       </c>
       <c r="M79">
-        <v>9470.947</v>
+        <v>9633.952</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -25300,40 +25792,81 @@
         <v>2016</v>
       </c>
       <c r="B80">
-        <v>2262.051</v>
+        <v>2274.948</v>
       </c>
       <c r="C80">
-        <v>4815.796</v>
+        <v>4981.956</v>
       </c>
       <c r="D80">
-        <v>10220.185</v>
+        <v>10328.262</v>
       </c>
       <c r="E80">
-        <v>2477.264</v>
+        <v>2472.442</v>
       </c>
       <c r="F80">
-        <v>225.808</v>
+        <v>209.604</v>
       </c>
       <c r="G80">
-        <v>587.096</v>
+        <v>568.665</v>
       </c>
       <c r="H80">
-        <v>2114.221</v>
+        <v>2095.595</v>
       </c>
       <c r="I80">
-        <v>1959.306</v>
+        <v>2131.213</v>
       </c>
       <c r="J80">
-        <v>521.863</v>
+        <v>503.219</v>
       </c>
       <c r="K80">
-        <v>2275.203</v>
+        <v>2278.814</v>
       </c>
       <c r="L80">
-        <v>4756.372</v>
+        <v>4913.246</v>
       </c>
       <c r="M80">
-        <v>10160.761</v>
+        <v>10259.552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B81">
+        <v>2331.638</v>
+      </c>
+      <c r="C81">
+        <v>5037.642</v>
+      </c>
+      <c r="D81">
+        <v>11140.196</v>
+      </c>
+      <c r="E81">
+        <v>2770.011</v>
+      </c>
+      <c r="F81">
+        <v>210.991</v>
+      </c>
+      <c r="G81">
+        <v>774.277</v>
+      </c>
+      <c r="H81">
+        <v>2347.276</v>
+      </c>
+      <c r="I81">
+        <v>2144.897</v>
+      </c>
+      <c r="J81">
+        <v>482.481</v>
+      </c>
+      <c r="K81">
+        <v>2285.871</v>
+      </c>
+      <c r="L81">
+        <v>4913.249</v>
+      </c>
+      <c r="M81">
+        <v>11015.803</v>
       </c>
     </row>
   </sheetData>
